--- a/data/2023-06-08_bioassay_2.xlsx
+++ b/data/2023-06-08_bioassay_2.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\Dropbox\PC\Desktop\MS Thesis\MS_Thesis_2023-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81893FA9-1F30-4FD1-B5AA-7A9A71B212CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86ADC70-8F1A-49D2-BB22-6D50E8ADE381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CCCB351-C044-4070-A66C-061B35931ADB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{5CCCB351-C044-4070-A66C-061B35931ADB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chl" sheetId="1" r:id="rId1"/>
     <sheet name="PO4" sheetId="2" r:id="rId2"/>
     <sheet name="NO3" sheetId="3" r:id="rId3"/>
     <sheet name="NO2" sheetId="4" r:id="rId4"/>
-    <sheet name="All Nutrients" sheetId="5" r:id="rId5"/>
+    <sheet name="NH4" sheetId="7" r:id="rId5"/>
+    <sheet name="All Nutrients" sheetId="5" r:id="rId6"/>
+    <sheet name="All Nutrients zeroes" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -387,8 +389,334 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Catherine Schlenker</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{EED8DAED-9E96-4C4E-A4C2-844F3A0D716A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+of bioassay</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F25C71D7-5E31-422A-8619-11B9074D929C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mg N/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{8515627D-CF8F-4374-B45E-AA40A3EDBEF9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mg N/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{5A11CF71-A8BE-4CCB-B127-74E8C0CAEFE5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mg N/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{AF76F872-0A26-4FF2-94EC-CC77C8ED19FD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mg P/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{AABDC30D-09D7-4AE8-B845-2B24E8B6A1F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NO2 + NO3
+mg N/L
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{A2EBD32F-2C6D-4758-8253-337D5EB8031C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NO2+3 + NH3
+mg N/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{DA2016A9-E734-4139-8735-DAA63A40ACAB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{B25579F5-20AF-479B-96AE-1A5EB99B8195}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{3CC14A3C-26D3-4A34-B16D-2585B2275999}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{837082F9-DCC7-4D94-BFC6-D7FACE8A02B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{74F167FA-79CC-4F27-8C59-C466BAABA78E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+umol/L</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{FDCAC482-C35F-4999-91B6-D7C3AB1C9850}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NO2+3 + NH3
+umol/L</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="107">
   <si>
     <t>Number</t>
   </si>
@@ -607,6 +935,108 @@
   </si>
   <si>
     <t>mg N/L</t>
+  </si>
+  <si>
+    <t>NO3_5</t>
+  </si>
+  <si>
+    <t>T0A 1 2</t>
+  </si>
+  <si>
+    <t>T0A 2 2</t>
+  </si>
+  <si>
+    <t>T0B 1 2</t>
+  </si>
+  <si>
+    <t>T0B 2 2</t>
+  </si>
+  <si>
+    <t>Control A 1 2</t>
+  </si>
+  <si>
+    <t>Control A 2 2</t>
+  </si>
+  <si>
+    <t>Control B 1 2</t>
+  </si>
+  <si>
+    <t>Control B 2 2</t>
+  </si>
+  <si>
+    <t>DIN A 1 2</t>
+  </si>
+  <si>
+    <t>DIN A 2 2</t>
+  </si>
+  <si>
+    <t>DIN B 1 2</t>
+  </si>
+  <si>
+    <t>DIN B 2 2</t>
+  </si>
+  <si>
+    <t>LP A 1 2</t>
+  </si>
+  <si>
+    <t>LP A 2 2</t>
+  </si>
+  <si>
+    <t>LP B 1 2</t>
+  </si>
+  <si>
+    <t>LP B 2 2</t>
+  </si>
+  <si>
+    <t>HP A 1 2</t>
+  </si>
+  <si>
+    <t>HP A 2 2</t>
+  </si>
+  <si>
+    <t>HP B 1 2</t>
+  </si>
+  <si>
+    <t>HP B 2 2</t>
+  </si>
+  <si>
+    <t>DIN + LP A 1 2</t>
+  </si>
+  <si>
+    <t>DIN + LP A 2 2</t>
+  </si>
+  <si>
+    <t>DIN + LP B 1 2</t>
+  </si>
+  <si>
+    <t>DIN + LP B 2 2</t>
+  </si>
+  <si>
+    <t>DIN + HP A 1 2</t>
+  </si>
+  <si>
+    <t>DIN + HP A 2 2</t>
+  </si>
+  <si>
+    <t>DIN + HP B 1 2</t>
+  </si>
+  <si>
+    <t>DIN + HP B 2 2</t>
+  </si>
+  <si>
+    <t>There may be some degradation - note date of test and date of bioassay</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Ammonia Seawater 1</t>
+  </si>
+  <si>
+    <t>Standard 96</t>
+  </si>
+  <si>
+    <t>DIN:DIP</t>
   </si>
 </sst>
 </file>
@@ -617,7 +1047,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,8 +1085,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,6 +1110,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +1152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -729,6 +1173,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1045,7 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CDBA2A-F3DE-4E4B-AD2E-26C867225FF3}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F36"/>
     </sheetView>
   </sheetViews>
@@ -2934,507 +3381,1236 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B730DF7-ED58-44A1-92BC-8CA5AFB58809}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="7">
+        <v>9.7750000000000007E-3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8">
+        <v>45106.634722222225</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
+      <c r="C3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="7">
+        <v>4.4715999999999999E-2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>45106.636111111111</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
+      <c r="C4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="7">
+        <v>7.9602999999999993E-2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8">
+        <v>45106.637499999997</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
+      <c r="C5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.184</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.183675</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <v>45106.638888888891</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8"/>
+      <c r="C6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.35528599999999999</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>45106.640277777777</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8"/>
+      <c r="C7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.54100300000000001</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>45106.642361111109</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="7"/>
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
+      <c r="C8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.69297500000000001</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>45106.643750000003</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="7"/>
+      <c r="A9" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8"/>
+      <c r="C9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1.076E-2</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>45106.645138888889</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="7"/>
+      <c r="A10" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8"/>
+      <c r="C10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="7">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1.06E-2</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>45106.688194444447</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="7"/>
+      <c r="A11" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
+      <c r="C11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1.0475E-2</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>45106.689583333333</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="7"/>
+      <c r="A12" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
+      <c r="C12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="7">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7">
+        <v>9.6050000000000007E-3</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
+        <v>45106.691666666666</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="7"/>
+      <c r="A13" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="8"/>
+      <c r="C13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="7">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7">
+        <v>9.9260000000000008E-3</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>45106.693055555559</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="7"/>
+      <c r="A14" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8"/>
+      <c r="C14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1.1937E-2</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <v>45106.694444444445</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="7"/>
+      <c r="A15" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="8"/>
+      <c r="C15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1.2135E-2</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>45106.695833333331</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="7"/>
+      <c r="A16" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
+      <c r="C16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1.1481E-2</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8">
+        <v>45106.697222222225</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="7"/>
+      <c r="A17" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
+      <c r="C17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-1E-3</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1.085E-2</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
+        <v>45106.698611111111</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="7"/>
+      <c r="A18" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
+      <c r="C18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2.5108999999999999E-2</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
+        <v>45106.700694444444</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
+      <c r="C19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.105</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2.5569999999999999E-2</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="8">
+        <v>45106.70208333333</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="7"/>
+      <c r="A20" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
+      <c r="C20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="7">
+        <v>2.5020000000000001E-2</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8">
+        <v>45106.703472222223</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="7"/>
+      <c r="A21" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
+      <c r="C21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.109</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="7">
+        <v>2.6044999999999999E-2</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8">
+        <v>45106.704861111109</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="7"/>
+      <c r="A22" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8"/>
+      <c r="C22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="7">
+        <v>-2E-3</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1.0806E-2</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="K22" s="8">
+        <v>45106.706250000003</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="7"/>
+      <c r="A23" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
+      <c r="C23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1.2009000000000001E-2</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8">
+        <v>45106.707638888889</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="7"/>
+      <c r="A24" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="8"/>
+      <c r="C24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1.2112E-2</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+      <c r="K24" s="8">
+        <v>45106.709027777775</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="7"/>
+      <c r="A25" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="8"/>
+      <c r="C25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1.1972999999999999E-2</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7">
+        <v>1</v>
+      </c>
+      <c r="K25" s="8">
+        <v>45106.711111111108</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="7"/>
+      <c r="A26" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8"/>
+      <c r="C26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="7">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1.8345E-2</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+      <c r="K26" s="8">
+        <v>45106.712500000001</v>
+      </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="7"/>
+      <c r="A27" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="8"/>
+      <c r="C27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1.1070999999999999E-2</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7">
+        <v>1</v>
+      </c>
+      <c r="K27" s="8">
+        <v>45106.713888888888</v>
+      </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="7"/>
+      <c r="A28" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="8"/>
+      <c r="C28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="7">
+        <v>-0.01</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="7">
+        <v>9.6360000000000005E-3</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
+      <c r="J28" s="7">
+        <v>1</v>
+      </c>
+      <c r="K28" s="8">
+        <v>45106.715277777781</v>
+      </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="7"/>
+      <c r="A29" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="8"/>
+      <c r="C29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="7">
+        <v>9.3889999999999998E-3</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1</v>
+      </c>
+      <c r="K29" s="8">
+        <v>45106.716666666667</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="7"/>
+      <c r="A30" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="8"/>
+      <c r="C30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="7">
+        <v>-1E-3</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1.0907999999999999E-2</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1</v>
+      </c>
+      <c r="K30" s="8">
+        <v>45106.718055555553</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="7"/>
+      <c r="A31" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="8"/>
+      <c r="C31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1.123E-2</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
+      <c r="K31" s="8">
+        <v>45106.719444444447</v>
+      </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="7"/>
+      <c r="A32" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="8"/>
+      <c r="C32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="7">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1.0227999999999999E-2</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+      <c r="J32" s="7">
+        <v>1</v>
+      </c>
+      <c r="K32" s="8">
+        <v>45106.720138888886</v>
+      </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="7"/>
+      <c r="A33" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="8"/>
+      <c r="C33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="7">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1.0541E-2</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
+      <c r="J33" s="7">
+        <v>1</v>
+      </c>
+      <c r="K33" s="8">
+        <v>45106.720833333333</v>
+      </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="7"/>
+      <c r="A34" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="8"/>
+      <c r="C34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1.1944E-2</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1</v>
+      </c>
+      <c r="K34" s="8">
+        <v>45106.722222222219</v>
+      </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="7"/>
+      <c r="A35" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="8"/>
+      <c r="C35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1.1552E-2</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
+      <c r="J35" s="7">
+        <v>1</v>
+      </c>
+      <c r="K35" s="8">
+        <v>45106.722916666666</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="7"/>
+      <c r="A36" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="8"/>
+      <c r="C36" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1.5219E-2</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="7">
+        <v>1</v>
+      </c>
+      <c r="K36" s="8">
+        <v>45106.723611111112</v>
+      </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="7"/>
+      <c r="A37" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="8"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="7">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="7">
+        <v>9.7599999999999996E-3</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="7">
+        <v>1</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1</v>
+      </c>
+      <c r="K37" s="8">
+        <v>45106.724999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4732,11 +5908,1217 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6936C47-0511-4B35-9797-1B153E690705}">
+  <dimension ref="A1:S38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.130107</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8">
+        <v>45149.665972222225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.16661000000000001</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>45149.667361111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.183</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.182506</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8">
+        <v>45149.668749999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.20561199999999999</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <v>45149.670138888891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.275225</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>45149.671527777777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.39142399999999999</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>45149.67291666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.497</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.49712099999999998</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>45149.674305555556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.57743800000000001</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>45149.675694444442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.12958900000000001</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>45149.677083333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.16977100000000001</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>45149.717361111114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.187833</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
+        <v>45149.71875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.162249</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>45149.720138888886</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.17491599999999999</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <v>45149.72152777778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.158832</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>45149.722916666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.168239</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8">
+        <v>45149.724305555559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.15779899999999999</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
+        <v>45149.725694444445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.16938500000000001</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
+        <v>45149.727083333331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.17913799999999999</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="8">
+        <v>45149.728472222225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.17435200000000001</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8">
+        <v>45149.729861111111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="7">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.15189900000000001</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8">
+        <v>45149.731249999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.17082700000000001</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="K22" s="8">
+        <v>45149.732638888891</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="7">
+        <v>-2E-3</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.155885</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8">
+        <v>45149.734027777777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.187252</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+      <c r="K24" s="8">
+        <v>45149.73541666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.16785900000000001</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7">
+        <v>1</v>
+      </c>
+      <c r="K25" s="8">
+        <v>45149.736805555556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="7">
+        <v>-0.34499999999999997</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="7">
+        <v>4.9179999999999996E-3</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+      <c r="K26" s="8">
+        <v>45149.738194444442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="7">
+        <v>-0.35</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="7">
+        <v>2.7299999999999998E-3</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7">
+        <v>1</v>
+      </c>
+      <c r="K27" s="8">
+        <v>45149.739583333336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="7">
+        <v>-0.35099999999999998</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="7">
+        <v>2.418E-3</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
+      <c r="J28" s="7">
+        <v>1</v>
+      </c>
+      <c r="K28" s="8">
+        <v>45149.740972222222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-0.34300000000000003</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="7">
+        <v>5.8869999999999999E-3</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7">
+        <v>1</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1</v>
+      </c>
+      <c r="K29" s="8">
+        <v>45149.742361111108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="7">
+        <v>-0.35399999999999998</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1.165E-3</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1</v>
+      </c>
+      <c r="K30" s="8">
+        <v>45149.743750000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="7">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="7">
+        <v>8.0440000000000008E-3</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
+      <c r="K31" s="8">
+        <v>45149.745138888888</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="7">
+        <v>-0.35399999999999998</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="7">
+        <v>9.2100000000000005E-4</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+      <c r="J32" s="7">
+        <v>1</v>
+      </c>
+      <c r="K32" s="8">
+        <v>45149.746527777781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="7">
+        <v>-0.34799999999999998</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="7">
+        <v>3.5049999999999999E-3</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
+      <c r="J33" s="7">
+        <v>1</v>
+      </c>
+      <c r="K33" s="8">
+        <v>45149.74722222222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="7">
+        <v>-0.34899999999999998</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="7">
+        <v>3.3E-3</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1</v>
+      </c>
+      <c r="K34" s="8">
+        <v>45149.748611111114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="7">
+        <v>-0.35</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="7">
+        <v>2.5409999999999999E-3</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
+      <c r="J35" s="7">
+        <v>1</v>
+      </c>
+      <c r="K35" s="8">
+        <v>45149.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="7">
+        <v>-0.34399999999999997</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="7">
+        <v>5.5710000000000004E-3</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="7">
+        <v>1</v>
+      </c>
+      <c r="K36" s="8">
+        <v>45149.751388888886</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="7">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="7">
+        <v>2.0219999999999999E-3</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7">
+        <v>1</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1</v>
+      </c>
+      <c r="K37" s="8">
+        <v>45149.75277777778</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="7">
+        <v>-0.33600000000000002</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="7">
+        <v>8.763E-3</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7">
+        <v>1</v>
+      </c>
+      <c r="J38" s="7">
+        <v>1</v>
+      </c>
+      <c r="K38" s="8">
+        <v>45149.754166666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E099A6A7-683D-49D1-8BC7-73FA927702F9}">
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E2" sqref="E2:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4792,12 +7174,1645 @@
       <c r="B2" s="11">
         <v>45083</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="9">
+        <v>-3.0000000000000001E-3</v>
+      </c>
       <c r="D2" s="9">
         <v>9.7000000000000003E-3</v>
       </c>
+      <c r="E2" s="10">
+        <v>0.03</v>
+      </c>
       <c r="F2" s="9">
         <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10">
+        <f>C2+D2</f>
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="J2" s="10">
+        <f>E2+H2</f>
+        <v>3.6699999999999997E-2</v>
+      </c>
+      <c r="L2" s="10">
+        <f>(C2/62.01)*1000</f>
+        <v>-4.8379293662312528E-2</v>
+      </c>
+      <c r="M2" s="10">
+        <f>(D2/46.01)*1000</f>
+        <v>0.21082373397087592</v>
+      </c>
+      <c r="N2" s="10">
+        <f>(E2/17.03)*1000</f>
+        <v>1.7615971814445095</v>
+      </c>
+      <c r="O2" s="10">
+        <f>(F2/94.97)*1000</f>
+        <v>-0.26324102348109935</v>
+      </c>
+      <c r="Q2" s="10">
+        <f>(H2/62)*1000</f>
+        <v>0.10806451612903227</v>
+      </c>
+      <c r="S2" s="10">
+        <f>N2+Q2</f>
+        <v>1.8696616975735418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="10" customFormat="1">
+      <c r="A3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="11">
+        <v>45083</v>
+      </c>
+      <c r="C3" s="9">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="D3" s="9">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="F3" s="9">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:H29" si="0">C3+D3</f>
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="J3" s="10">
+        <f t="shared" ref="J3:J29" si="1">E3+H3</f>
+        <v>7.619999999999999E-2</v>
+      </c>
+      <c r="L3" s="10">
+        <f>(C3/62.01)*1000</f>
+        <v>-6.4505724883083371E-2</v>
+      </c>
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M29" si="2">(D3/46.01)*1000</f>
+        <v>0.19995653118887199</v>
+      </c>
+      <c r="N3" s="10">
+        <f t="shared" ref="N3:N29" si="3">(E3/17.03)*1000</f>
+        <v>4.1691133294186722</v>
+      </c>
+      <c r="O3" s="10">
+        <f t="shared" ref="O3:O29" si="4">(F3/94.97)*1000</f>
+        <v>-0.26324102348109935</v>
+      </c>
+      <c r="Q3" s="10">
+        <f t="shared" ref="Q3:Q29" si="5">(H3/62)*1000</f>
+        <v>8.3870967741935476E-2</v>
+      </c>
+      <c r="S3" s="10">
+        <f t="shared" ref="S3:S29" si="6">N3+Q3</f>
+        <v>4.2529842971606078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="10" customFormat="1">
+      <c r="A4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="11">
+        <v>45083</v>
+      </c>
+      <c r="C4" s="9">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10">
+        <f t="shared" si="0"/>
+        <v>-1.8999999999999989E-3</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" si="1"/>
+        <v>1.11E-2</v>
+      </c>
+      <c r="L4" s="10">
+        <f t="shared" ref="L4:L29" si="7">(C4/62.01)*1000</f>
+        <v>-0.17739074342847927</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" si="2"/>
+        <v>0.19778309063247121</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" si="3"/>
+        <v>0.76335877862595414</v>
+      </c>
+      <c r="O4" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.24218174160261136</v>
+      </c>
+      <c r="Q4" s="10">
+        <f t="shared" si="5"/>
+        <v>-3.0645161290322565E-2</v>
+      </c>
+      <c r="S4" s="10">
+        <f t="shared" si="6"/>
+        <v>0.73271361733563156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="10" customFormat="1">
+      <c r="A5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="11">
+        <v>45083</v>
+      </c>
+      <c r="C5" s="9">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="D5" s="9">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="E5" s="10">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999991E-3</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="1"/>
+        <v>4.3300000000000005E-2</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" si="7"/>
+        <v>-0.12901144976616674</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" si="2"/>
+        <v>0.20212997174527275</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="3"/>
+        <v>2.4662360540223136</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.26324102348109935</v>
+      </c>
+      <c r="Q5" s="10">
+        <f t="shared" si="5"/>
+        <v>2.0967741935483855E-2</v>
+      </c>
+      <c r="S5" s="10">
+        <f t="shared" si="6"/>
+        <v>2.4872037959577975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="12">
+        <v>45085</v>
+      </c>
+      <c r="C6" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8.6E-3</v>
+      </c>
+      <c r="E6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="7">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.46E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="7"/>
+        <v>9.6758587324625056E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>0.18691588785046731</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>0.29359953024075158</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>-0.26324102348109935</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>0.23548387096774195</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="6"/>
+        <v>0.52908340120849351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="12">
+        <v>45085</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="E7">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="7"/>
+        <v>0.12901144976616674</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>0.20212997174527275</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>1.5854374633000585</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>-0.26324102348109935</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>0.27903225806451615</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>1.8644697213645747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="12">
+        <v>45085</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="E8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1.1300000000000001E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>1.43E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="7"/>
+        <v>4.8379293662312528E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>0.18039556618126495</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>0.17615971814445094</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>-0.26324102348109935</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>0.18225806451612905</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>0.35841778266058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="12">
+        <v>45085</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1E-3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="E9">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>8.2999999999999984E-3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>3.73E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>-1.6126431220770843E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>0.20212997174527275</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>1.7028772753963592</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>-0.25271138254185532</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>0.13387096774193546</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="6"/>
+        <v>1.8367482431382947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="10" customFormat="1">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="11">
+        <v>45085</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D10" s="9">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F10" s="9">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.1119</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="1"/>
+        <v>0.16289999999999999</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="7"/>
+        <v>1.6448959845186262</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="2"/>
+        <v>0.21517061508367749</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="3"/>
+        <v>2.9947152084556663</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.27377066442034326</v>
+      </c>
+      <c r="Q10" s="10">
+        <f t="shared" si="5"/>
+        <v>1.8048387096774192</v>
+      </c>
+      <c r="S10" s="10">
+        <f t="shared" si="6"/>
+        <v>4.7995539181330855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="10" customFormat="1">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="11">
+        <v>45085</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.105</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="F11" s="9">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.1152</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="1"/>
+        <v>0.1552</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="7"/>
+        <v>1.6932752781809386</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="2"/>
+        <v>0.22169093675287982</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="3"/>
+        <v>2.3487962419260127</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.27377066442034326</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" si="5"/>
+        <v>1.8580645161290323</v>
+      </c>
+      <c r="S11" s="10">
+        <f t="shared" si="6"/>
+        <v>4.2068607580550452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="10" customFormat="1">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="11">
+        <v>45085</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D12" s="9">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="E12" s="10">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="1"/>
+        <v>9.9700000000000011E-2</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="7"/>
+        <v>1.6287695532978554</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="2"/>
+        <v>0.21082373397087592</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="3"/>
+        <v>-0.64591896652965353</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.28430030535958722</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="5"/>
+        <v>1.7854838709677421</v>
+      </c>
+      <c r="S12" s="10">
+        <f t="shared" si="6"/>
+        <v>1.1395649044380884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="10" customFormat="1">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="11">
+        <v>45085</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.109</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1.01E-2</v>
+      </c>
+      <c r="E13" s="10">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F13" s="9">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.1191</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="1"/>
+        <v>0.15110000000000001</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="7"/>
+        <v>1.757781003064022</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="2"/>
+        <v>0.21951749619647903</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="3"/>
+        <v>1.8790369935408104</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.27377066442034326</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" si="5"/>
+        <v>1.9209677419354838</v>
+      </c>
+      <c r="S13" s="10">
+        <f t="shared" si="6"/>
+        <v>3.8000047354762945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="12">
+        <v>45085</v>
+      </c>
+      <c r="C14" s="7">
+        <v>-2E-3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E14">
+        <v>-2E-3</v>
+      </c>
+      <c r="F14" s="7">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="7"/>
+        <v>-3.2252862441541685E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>0.19343620951966964</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>-0.11743981209630065</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>0.86343055701800575</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>0.11129032258064517</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>-6.1494895156554846E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="12">
+        <v>45085</v>
+      </c>
+      <c r="C15" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>8.6000000000000007E-2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="7"/>
+        <v>0.1128850185453959</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>0.19560965007607042</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>4.1103934233705228</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>0.74760450668632195</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="6"/>
+        <v>4.3684579394995549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="12">
+        <v>45085</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E16">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>0.12901144976616674</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>0.19560965007607042</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>1.5267175572519083</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>0.86343055701800575</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>0.27419354838709681</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="6"/>
+        <v>1.800911105639005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="12">
+        <v>45085</v>
+      </c>
+      <c r="C17" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="E17">
+        <v>-0.34499999999999997</v>
+      </c>
+      <c r="F17" s="7">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>-0.32919999999999999</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>0.1128850185453959</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>0.19126276896326888</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>-20.258367586611858</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>0.70548594292934619</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>0.25483870967741939</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="6"/>
+        <v>-20.003528876934439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="10" customFormat="1">
+      <c r="A18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="11">
+        <v>45085</v>
+      </c>
+      <c r="C18" s="9">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D18" s="9">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="E18" s="10">
+        <v>-0.35</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10">
+        <f t="shared" si="0"/>
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.28789999999999999</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" si="7"/>
+        <v>0.85470085470085466</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="2"/>
+        <v>0.19778309063247121</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="3"/>
+        <v>-20.551967116852612</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="4"/>
+        <v>5.3385279561966943</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" si="5"/>
+        <v>1.0016129032258065</v>
+      </c>
+      <c r="S18" s="10">
+        <f t="shared" si="6"/>
+        <v>-19.550354213626807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="10" customFormat="1">
+      <c r="A19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="11">
+        <v>45085</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="E19" s="10">
+        <v>-0.35099999999999998</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10">
+        <f t="shared" si="0"/>
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.34229999999999999</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="2"/>
+        <v>0.18908932840686807</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="3"/>
+        <v>-20.610687022900759</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="4"/>
+        <v>4.9910498052016425</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="5"/>
+        <v>0.14032258064516129</v>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" si="6"/>
+        <v>-20.470364442255597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="10" customFormat="1">
+      <c r="A20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="11">
+        <v>45085</v>
+      </c>
+      <c r="C20" s="9">
+        <v>-0.01</v>
+      </c>
+      <c r="D20" s="9">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E20" s="10">
+        <v>-0.34300000000000003</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10">
+        <f t="shared" si="0"/>
+        <v>-8.0000000000000036E-4</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.34380000000000005</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" si="7"/>
+        <v>-0.16126431220770843</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="2"/>
+        <v>0.19995653118887199</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="3"/>
+        <v>-20.140927774515561</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="4"/>
+        <v>4.727808781720543</v>
+      </c>
+      <c r="Q20" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.290322580645162E-2</v>
+      </c>
+      <c r="S20" s="10">
+        <f t="shared" si="6"/>
+        <v>-20.153831000322011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="10" customFormat="1">
+      <c r="A21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="11">
+        <v>45085</v>
+      </c>
+      <c r="C21" s="9">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="D21" s="9">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E21" s="10">
+        <v>-0.35399999999999998</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10">
+        <f t="shared" si="0"/>
+        <v>-3.4999999999999996E-3</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.35749999999999998</v>
+      </c>
+      <c r="L21" s="10">
+        <f t="shared" si="7"/>
+        <v>-0.19351717464925011</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="2"/>
+        <v>0.18474244729406653</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="3"/>
+        <v>-20.786846741045213</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="4"/>
+        <v>5.8334210803411608</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" si="5"/>
+        <v>-5.6451612903225805E-2</v>
+      </c>
+      <c r="S21" s="10">
+        <f t="shared" si="6"/>
+        <v>-20.843298353948438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="12">
+        <v>45085</v>
+      </c>
+      <c r="C22" s="7">
+        <v>-1E-3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="E22">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="F22" s="7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>8.6E-3</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>-0.32940000000000003</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="7"/>
+        <v>-1.6126431220770843E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>0.20865029341447508</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>-19.847328244274809</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>0.56860061071917445</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>0.13870967741935483</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="6"/>
+        <v>-19.708618566855453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="12">
+        <v>45085</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="D23" s="7">
+        <v>8.6E-3</v>
+      </c>
+      <c r="E23">
+        <v>-0.35399999999999998</v>
+      </c>
+      <c r="F23" s="7">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000009E-3</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>-0.34439999999999998</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>1.6126431220770843E-2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>0.18691588785046731</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>-20.786846741045213</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>0.55807096977993054</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>0.15483870967741936</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="6"/>
+        <v>-20.632008031367793</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="12">
+        <v>45085</v>
+      </c>
+      <c r="C24" s="7">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="E24">
+        <v>-0.34799999999999998</v>
+      </c>
+      <c r="F24" s="7">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>3.2999999999999991E-3</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>-0.34469999999999995</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="7"/>
+        <v>-9.6758587324625056E-2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>0.20212997174527275</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>-20.434527304756308</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>0.62124881541539434</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="5"/>
+        <v>5.3225806451612886E-2</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="6"/>
+        <v>-20.381301498304694</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="12">
+        <v>45085</v>
+      </c>
+      <c r="C25" s="7">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="E25">
+        <v>-0.34899999999999998</v>
+      </c>
+      <c r="F25" s="7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>4.6999999999999993E-3</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>-0.34429999999999999</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="7"/>
+        <v>-6.4505724883083371E-2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>0.18908932840686807</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>-20.493247210804459</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>0.67389702011161423</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="5"/>
+        <v>7.5806451612903211E-2</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="6"/>
+        <v>-20.417440759191557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="10" customFormat="1">
+      <c r="A26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="11">
+        <v>45085</v>
+      </c>
+      <c r="C26" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D26" s="9">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E26" s="10">
+        <v>-0.35</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.439</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10">
+        <f t="shared" si="0"/>
+        <v>1.55E-2</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.33449999999999996</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="7"/>
+        <v>9.6758587324625056E-2</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="2"/>
+        <v>0.20647685285807435</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="3"/>
+        <v>-20.551967116852612</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6225123723281039</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="6"/>
+        <v>-20.301967116852612</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="10" customFormat="1">
+      <c r="A27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="11">
+        <v>45085</v>
+      </c>
+      <c r="C27" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D27" s="9">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="E27" s="10">
+        <v>-0.34399999999999997</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10">
+        <f t="shared" si="0"/>
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.33089999999999997</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="7"/>
+        <v>6.4505724883083371E-2</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="2"/>
+        <v>0.19778309063247121</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="3"/>
+        <v>-20.199647680563707</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="4"/>
+        <v>4.8225755501737391</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="5"/>
+        <v>0.21129032258064515</v>
+      </c>
+      <c r="S27" s="10">
+        <f t="shared" si="6"/>
+        <v>-19.988357357983062</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="10" customFormat="1">
+      <c r="A28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="11">
+        <v>45085</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="D28" s="9">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E28" s="10">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10">
+        <f t="shared" si="0"/>
+        <v>3.95E-2</v>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.3125</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="7"/>
+        <v>0.48379293662312528</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="2"/>
+        <v>0.20647685285807435</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="3"/>
+        <v>-20.669406928948913</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" si="4"/>
+        <v>4.4435084763609565</v>
+      </c>
+      <c r="Q28" s="10">
+        <f t="shared" si="5"/>
+        <v>0.63709677419354849</v>
+      </c>
+      <c r="S28" s="10">
+        <f t="shared" si="6"/>
+        <v>-20.032310154755365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="10" customFormat="1">
+      <c r="A29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="11">
+        <v>45085</v>
+      </c>
+      <c r="C29" s="9">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="D29" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E29" s="10">
+        <v>-0.33600000000000002</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.33600000000000002</v>
+      </c>
+      <c r="L29" s="10">
+        <f t="shared" si="7"/>
+        <v>-0.14513788098693758</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="2"/>
+        <v>0.19560965007607042</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="3"/>
+        <v>-19.729888432178509</v>
+      </c>
+      <c r="O29" s="10">
+        <f t="shared" si="4"/>
+        <v>5.0331683689586182</v>
+      </c>
+      <c r="Q29" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="10">
+        <f t="shared" si="6"/>
+        <v>-19.729888432178509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D503721-5177-475D-B124-D41F3E74F654}">
+  <dimension ref="A1:U56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U1" activeCellId="2" sqref="Q1:Q1048576 S1:S1048576 U1:U1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="10" customFormat="1">
+      <c r="A2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="11">
+        <v>45083</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="10">
@@ -4806,11 +8821,23 @@
       </c>
       <c r="J2" s="10">
         <f>E2+H2</f>
-        <v>9.7000000000000003E-3</v>
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="L2" s="10">
+        <f>(C2/62.01)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="10">
+        <f>(D2/46.01)*1000</f>
+        <v>0.21082373397087592</v>
+      </c>
+      <c r="N2" s="10">
+        <f>(E2/17.03)*1000</f>
+        <v>1.7615971814445095</v>
       </c>
       <c r="O2" s="10">
         <f>(F2/94.97)*1000</f>
-        <v>-0.26324102348109935</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="10">
         <f>(H2/62)*1000</f>
@@ -4818,22 +8845,31 @@
       </c>
       <c r="S2" s="10">
         <f>N2+Q2</f>
-        <v>0.15645161290322582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="10" customFormat="1">
+        <v>1.9180487943477353</v>
+      </c>
+      <c r="U2" s="10" t="e">
+        <f>S2/O2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="10" customFormat="1">
       <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="11">
         <v>45083</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
       <c r="D3" s="9">
         <v>9.1999999999999998E-3</v>
       </c>
+      <c r="E3" s="10">
+        <v>7.0999999999999994E-2</v>
+      </c>
       <c r="F3" s="9">
-        <v>-2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="10">
@@ -4842,34 +8878,55 @@
       </c>
       <c r="J3" s="10">
         <f t="shared" ref="J3:J29" si="1">E3+H3</f>
-        <v>9.1999999999999998E-3</v>
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="L3" s="10">
+        <f t="shared" ref="L3:L29" si="2">(C3/62.01)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M29" si="3">(D3/46.01)*1000</f>
+        <v>0.19995653118887199</v>
+      </c>
+      <c r="N3" s="10">
+        <f t="shared" ref="N3:N29" si="4">(E3/17.03)*1000</f>
+        <v>4.1691133294186722</v>
       </c>
       <c r="O3" s="10">
-        <f t="shared" ref="O3:O29" si="2">(F3/94.97)*1000</f>
-        <v>-0.26324102348109935</v>
+        <f t="shared" ref="O3:O29" si="5">(F3/94.97)*1000</f>
+        <v>0</v>
       </c>
       <c r="Q3" s="10">
-        <f t="shared" ref="Q3:Q29" si="3">(H3/62)*1000</f>
+        <f t="shared" ref="Q3:Q29" si="6">(H3/62)*1000</f>
         <v>0.14838709677419354</v>
       </c>
       <c r="S3" s="10">
-        <f t="shared" ref="S3:S29" si="4">N3+Q3</f>
-        <v>0.14838709677419354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="10" customFormat="1">
+        <f t="shared" ref="S3:S29" si="7">N3+Q3</f>
+        <v>4.3175004261928658</v>
+      </c>
+      <c r="U3" s="10" t="e">
+        <f t="shared" ref="U3:U29" si="8">S3/O3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="10" customFormat="1">
       <c r="A4" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="11">
         <v>45083</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
       <c r="D4" s="9">
         <v>9.1000000000000004E-3</v>
       </c>
+      <c r="E4" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="F4" s="9">
-        <v>-2.3E-2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="10">
@@ -4878,34 +8935,55 @@
       </c>
       <c r="J4" s="10">
         <f t="shared" si="1"/>
-        <v>9.1000000000000004E-3</v>
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="L4" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19778309063247121</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" si="4"/>
+        <v>0.76335877862595414</v>
       </c>
       <c r="O4" s="10">
-        <f t="shared" si="2"/>
-        <v>-0.24218174160261136</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Q4" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.14677419354838711</v>
       </c>
       <c r="S4" s="10">
-        <f t="shared" si="4"/>
-        <v>0.14677419354838711</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="10" customFormat="1">
+        <f t="shared" si="7"/>
+        <v>0.91013297217434119</v>
+      </c>
+      <c r="U4" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="10" customFormat="1">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="11">
         <v>45083</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
       <c r="D5" s="9">
         <v>9.2999999999999992E-3</v>
       </c>
+      <c r="E5" s="10">
+        <v>4.2000000000000003E-2</v>
+      </c>
       <c r="F5" s="9">
-        <v>-2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="10">
@@ -4914,142 +8992,226 @@
       </c>
       <c r="J5" s="10">
         <f t="shared" si="1"/>
-        <v>9.2999999999999992E-3</v>
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" si="3"/>
+        <v>0.20212997174527275</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="4"/>
+        <v>2.4662360540223136</v>
       </c>
       <c r="O5" s="10">
-        <f t="shared" si="2"/>
-        <v>-0.26324102348109935</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Q5" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="S5" s="10">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <f t="shared" si="7"/>
+        <v>2.6162360540223135</v>
+      </c>
+      <c r="U5" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>45085</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="D6" s="7">
         <v>8.6E-3</v>
       </c>
+      <c r="E6">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="F6" s="7">
-        <v>-2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>8.6E-3</v>
+        <v>1.46E-2</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>8.6E-3</v>
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>9.6758587324625056E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0.18691588785046731</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>0.29359953024075158</v>
       </c>
       <c r="O6">
-        <f t="shared" si="2"/>
-        <v>-0.26324102348109935</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="3"/>
-        <v>0.13870967741935483</v>
+        <f t="shared" si="6"/>
+        <v>0.23548387096774195</v>
       </c>
       <c r="S6">
-        <f t="shared" si="4"/>
-        <v>0.13870967741935483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <f t="shared" si="7"/>
+        <v>0.52908340120849351</v>
+      </c>
+      <c r="U6" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <v>45085</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="D7" s="7">
         <v>9.2999999999999992E-3</v>
       </c>
+      <c r="E7">
+        <v>2.7E-2</v>
+      </c>
       <c r="F7" s="7">
-        <v>-2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>9.2999999999999992E-3</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>9.2999999999999992E-3</v>
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.12901144976616674</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>0.20212997174527275</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>1.5854374633000585</v>
       </c>
       <c r="O7">
-        <f t="shared" si="2"/>
-        <v>-0.26324102348109935</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>0.15</v>
+        <f t="shared" si="6"/>
+        <v>0.27903225806451615</v>
       </c>
       <c r="S7">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <f t="shared" si="7"/>
+        <v>1.8644697213645747</v>
+      </c>
+      <c r="U7" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <v>45085</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="D8" s="7">
         <v>8.3000000000000001E-3</v>
       </c>
+      <c r="E8">
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="F8" s="7">
-        <v>-2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>8.3000000000000001E-3</v>
+        <v>1.1300000000000001E-2</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>8.3000000000000001E-3</v>
+        <v>1.43E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>4.8379293662312528E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.18039556618126495</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>0.17615971814445094</v>
       </c>
       <c r="O8">
-        <f t="shared" si="2"/>
-        <v>-0.26324102348109935</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="3"/>
-        <v>0.13387096774193549</v>
+        <f t="shared" si="6"/>
+        <v>0.18225806451612905</v>
       </c>
       <c r="S8">
-        <f t="shared" si="4"/>
-        <v>0.13387096774193549</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <f t="shared" si="7"/>
+        <v>0.35841778266058</v>
+      </c>
+      <c r="U8" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>45085</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
       <c r="D9" s="7">
         <v>9.2999999999999992E-3</v>
       </c>
+      <c r="E9">
+        <v>2.9000000000000001E-2</v>
+      </c>
       <c r="F9" s="7">
-        <v>-2.4E-2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9">
@@ -5058,175 +9220,280 @@
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>9.2999999999999992E-3</v>
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0.20212997174527275</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>1.7028772753963592</v>
       </c>
       <c r="O9">
-        <f t="shared" si="2"/>
-        <v>-0.25271138254185532</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="S9">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="10" customFormat="1">
+        <f t="shared" si="7"/>
+        <v>1.8528772753963592</v>
+      </c>
+      <c r="U9" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="10" customFormat="1">
       <c r="A10" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="11">
         <v>45085</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9">
+        <v>0.10199999999999999</v>
+      </c>
       <c r="D10" s="9">
         <v>9.9000000000000008E-3</v>
       </c>
+      <c r="E10" s="10">
+        <v>5.0999999999999997E-2</v>
+      </c>
       <c r="F10" s="9">
-        <v>-2.5999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>9.9000000000000008E-3</v>
+        <v>0.1119</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="1"/>
-        <v>9.9000000000000008E-3</v>
+        <v>0.16289999999999999</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="2"/>
+        <v>1.6448959845186262</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="3"/>
+        <v>0.21517061508367749</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="4"/>
+        <v>2.9947152084556663</v>
       </c>
       <c r="O10" s="10">
-        <f t="shared" si="2"/>
-        <v>-0.27377066442034326</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Q10" s="10">
-        <f t="shared" si="3"/>
-        <v>0.15967741935483873</v>
+        <f t="shared" si="6"/>
+        <v>1.8048387096774192</v>
       </c>
       <c r="S10" s="10">
-        <f t="shared" si="4"/>
-        <v>0.15967741935483873</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="10" customFormat="1">
+        <f t="shared" si="7"/>
+        <v>4.7995539181330855</v>
+      </c>
+      <c r="U10" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="10" customFormat="1">
       <c r="A11" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="11">
         <v>45085</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="9">
+        <v>0.105</v>
+      </c>
       <c r="D11" s="9">
         <v>1.0200000000000001E-2</v>
       </c>
+      <c r="E11" s="10">
+        <v>0.04</v>
+      </c>
       <c r="F11" s="9">
-        <v>-2.5999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>1.0200000000000001E-2</v>
+        <v>0.1152</v>
       </c>
       <c r="J11" s="10">
         <f t="shared" si="1"/>
-        <v>1.0200000000000001E-2</v>
+        <v>0.1552</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="2"/>
+        <v>1.6932752781809386</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="3"/>
+        <v>0.22169093675287982</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="4"/>
+        <v>2.3487962419260127</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" si="2"/>
-        <v>-0.27377066442034326</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Q11" s="10">
-        <f t="shared" si="3"/>
-        <v>0.16451612903225807</v>
+        <f t="shared" si="6"/>
+        <v>1.8580645161290323</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" si="4"/>
-        <v>0.16451612903225807</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="10" customFormat="1">
+        <f t="shared" si="7"/>
+        <v>4.2068607580550452</v>
+      </c>
+      <c r="U11" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="10" customFormat="1">
       <c r="A12" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="11">
         <v>45085</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9">
+        <v>0.10100000000000001</v>
+      </c>
       <c r="D12" s="9">
         <v>9.7000000000000003E-3</v>
       </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
       <c r="F12" s="9">
-        <v>-2.7E-2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>9.7000000000000003E-3</v>
+        <v>0.11070000000000001</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" si="1"/>
-        <v>9.7000000000000003E-3</v>
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="2"/>
+        <v>1.6287695532978554</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="3"/>
+        <v>0.21082373397087592</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" si="2"/>
-        <v>-0.28430030535958722</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Q12" s="10">
-        <f t="shared" si="3"/>
-        <v>0.15645161290322582</v>
+        <f t="shared" si="6"/>
+        <v>1.7854838709677421</v>
       </c>
       <c r="S12" s="10">
-        <f t="shared" si="4"/>
-        <v>0.15645161290322582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="10" customFormat="1">
+        <f t="shared" si="7"/>
+        <v>1.7854838709677421</v>
+      </c>
+      <c r="U12" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="10" customFormat="1">
       <c r="A13" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="11">
         <v>45085</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9">
+        <v>0.109</v>
+      </c>
       <c r="D13" s="9">
         <v>1.01E-2</v>
       </c>
+      <c r="E13" s="10">
+        <v>3.2000000000000001E-2</v>
+      </c>
       <c r="F13" s="9">
-        <v>-2.5999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>1.01E-2</v>
+        <v>0.1191</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="1"/>
-        <v>1.01E-2</v>
+        <v>0.15110000000000001</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="2"/>
+        <v>1.757781003064022</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="3"/>
+        <v>0.21951749619647903</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="4"/>
+        <v>1.8790369935408104</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="2"/>
-        <v>-0.27377066442034326</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Q13" s="10">
-        <f t="shared" si="3"/>
-        <v>0.16290322580645161</v>
+        <f t="shared" si="6"/>
+        <v>1.9209677419354838</v>
       </c>
       <c r="S13" s="10">
-        <f t="shared" si="4"/>
-        <v>0.16290322580645161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <f t="shared" si="7"/>
+        <v>3.8000047354762945</v>
+      </c>
+      <c r="U13" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <v>45085</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
       <c r="D14" s="7">
         <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14" s="7">
         <v>8.2000000000000003E-2</v>
@@ -5240,29 +9507,50 @@
         <f t="shared" si="1"/>
         <v>8.8999999999999999E-3</v>
       </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>0.19343620951966964</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="O14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.86343055701800575</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.1435483870967742</v>
       </c>
       <c r="S14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.1435483870967742</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="U14" s="14">
+        <f t="shared" si="8"/>
+        <v>0.16625354051927616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="12">
         <v>45085</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="D15" s="7">
         <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E15">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F15" s="7">
         <v>7.0999999999999994E-2</v>
@@ -5270,35 +9558,56 @@
       <c r="G15" s="7"/>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>8.9999999999999993E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>8.9999999999999993E-3</v>
+        <v>8.6000000000000007E-2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.1128850185453959</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>0.19560965007607042</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>4.1103934233705228</v>
       </c>
       <c r="O15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.74760450668632195</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="3"/>
-        <v>0.14516129032258063</v>
+        <f t="shared" si="6"/>
+        <v>0.25806451612903225</v>
       </c>
       <c r="S15">
-        <f t="shared" si="4"/>
-        <v>0.14516129032258063</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <f t="shared" si="7"/>
+        <v>4.3684579394995549</v>
+      </c>
+      <c r="U15" s="14">
+        <f t="shared" si="8"/>
+        <v>5.8432739509052505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="12">
         <v>45085</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="D16" s="7">
         <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E16">
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F16" s="7">
         <v>8.2000000000000003E-2</v>
@@ -5306,35 +9615,56 @@
       <c r="G16" s="7"/>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>8.9999999999999993E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>8.9999999999999993E-3</v>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0.12901144976616674</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>0.19560965007607042</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>1.5267175572519083</v>
       </c>
       <c r="O16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.86343055701800575</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="3"/>
-        <v>0.14516129032258063</v>
+        <f t="shared" si="6"/>
+        <v>0.27419354838709681</v>
       </c>
       <c r="S16">
-        <f t="shared" si="4"/>
-        <v>0.14516129032258063</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <f t="shared" si="7"/>
+        <v>1.800911105639005</v>
+      </c>
+      <c r="U16" s="14">
+        <f t="shared" si="8"/>
+        <v>2.0857625329577596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="12">
         <v>45085</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="D17" s="7">
         <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17" s="7">
         <v>6.7000000000000004E-2</v>
@@ -5342,35 +9672,56 @@
       <c r="G17" s="7"/>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>8.8000000000000005E-3</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>8.8000000000000005E-3</v>
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0.1128850185453959</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>0.19126276896326888</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.70548594292934619</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="3"/>
-        <v>0.14193548387096774</v>
+        <f t="shared" si="6"/>
+        <v>0.25483870967741939</v>
       </c>
       <c r="S17">
-        <f t="shared" si="4"/>
-        <v>0.14193548387096774</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="10" customFormat="1">
+        <f t="shared" si="7"/>
+        <v>0.25483870967741939</v>
+      </c>
+      <c r="U17" s="14">
+        <f t="shared" si="8"/>
+        <v>0.36122436206066444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="10" customFormat="1">
       <c r="A18" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="11">
         <v>45085</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="9">
+        <v>5.2999999999999999E-2</v>
+      </c>
       <c r="D18" s="9">
         <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
       </c>
       <c r="F18" s="9">
         <v>0.50700000000000001</v>
@@ -5378,35 +9729,56 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>9.1000000000000004E-3</v>
+        <v>6.2100000000000002E-2</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="1"/>
-        <v>9.1000000000000004E-3</v>
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" si="2"/>
+        <v>0.85470085470085466</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19778309063247121</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.3385279561966943</v>
       </c>
       <c r="Q18" s="10">
-        <f t="shared" si="3"/>
-        <v>0.14677419354838711</v>
+        <f t="shared" si="6"/>
+        <v>1.0016129032258065</v>
       </c>
       <c r="S18" s="10">
-        <f t="shared" si="4"/>
-        <v>0.14677419354838711</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" s="10" customFormat="1">
+        <f t="shared" si="7"/>
+        <v>1.0016129032258065</v>
+      </c>
+      <c r="U18" s="10">
+        <f t="shared" si="8"/>
+        <v>0.18761967932811605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="10" customFormat="1">
       <c r="A19" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="11">
         <v>45085</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
       <c r="D19" s="9">
         <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
       </c>
       <c r="F19" s="9">
         <v>0.47399999999999998</v>
@@ -5420,29 +9792,50 @@
         <f t="shared" si="1"/>
         <v>8.6999999999999994E-3</v>
       </c>
+      <c r="L19" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="3"/>
+        <v>0.18908932840686807</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="O19" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.9910498052016425</v>
       </c>
       <c r="Q19" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.14032258064516129</v>
       </c>
       <c r="S19" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.14032258064516129</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" s="10" customFormat="1">
+      <c r="U19" s="10">
+        <f t="shared" si="8"/>
+        <v>2.8114842792976723E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="10" customFormat="1">
       <c r="A20" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="11">
         <v>45085</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
       <c r="D20" s="9">
         <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
       </c>
       <c r="F20" s="9">
         <v>0.44900000000000001</v>
@@ -5456,29 +9849,50 @@
         <f t="shared" si="1"/>
         <v>9.1999999999999998E-3</v>
       </c>
+      <c r="L20" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19995653118887199</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="O20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.727808781720543</v>
       </c>
       <c r="Q20" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.14838709677419354</v>
       </c>
       <c r="S20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.14838709677419354</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" s="10" customFormat="1">
+      <c r="U20" s="10">
+        <f t="shared" si="8"/>
+        <v>3.1386019110568285E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="10" customFormat="1">
       <c r="A21" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="11">
         <v>45085</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
       <c r="D21" s="9">
         <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
       </c>
       <c r="F21" s="9">
         <v>0.55400000000000005</v>
@@ -5492,29 +9906,50 @@
         <f t="shared" si="1"/>
         <v>8.5000000000000006E-3</v>
       </c>
+      <c r="L21" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="3"/>
+        <v>0.18474244729406653</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="O21" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.8334210803411608</v>
       </c>
       <c r="Q21" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.1370967741935484</v>
       </c>
       <c r="S21" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.1370967741935484</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="U21" s="10">
+        <f t="shared" si="8"/>
+        <v>2.3501950623034822E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="12">
         <v>45085</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
       <c r="D22" s="7">
         <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22" s="7">
         <v>5.3999999999999999E-2</v>
@@ -5528,29 +9963,50 @@
         <f t="shared" si="1"/>
         <v>9.5999999999999992E-3</v>
       </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>0.20865029341447508</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="O22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.56860061071917445</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.15483870967741933</v>
       </c>
       <c r="S22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.15483870967741933</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="U22" s="14">
+        <f t="shared" si="8"/>
+        <v>0.27231541218637989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="12">
         <v>45085</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7">
+        <v>1E-3</v>
+      </c>
       <c r="D23" s="7">
         <v>8.6E-3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23" s="7">
         <v>5.2999999999999999E-2</v>
@@ -5558,35 +10014,56 @@
       <c r="G23" s="7"/>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>8.6E-3</v>
+        <v>9.6000000000000009E-3</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>8.6E-3</v>
+        <v>9.6000000000000009E-3</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>1.6126431220770843E-2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>0.18691588785046731</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.55807096977993054</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="3"/>
-        <v>0.13870967741935483</v>
+        <f t="shared" si="6"/>
+        <v>0.15483870967741936</v>
       </c>
       <c r="S23">
-        <f t="shared" si="4"/>
-        <v>0.13870967741935483</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <f t="shared" si="7"/>
+        <v>0.15483870967741936</v>
+      </c>
+      <c r="U23" s="14">
+        <f t="shared" si="8"/>
+        <v>0.27745343883140594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="12">
         <v>45085</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
       <c r="D24" s="7">
         <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24" s="7">
         <v>5.8999999999999997E-2</v>
@@ -5600,29 +10077,50 @@
         <f t="shared" si="1"/>
         <v>9.2999999999999992E-3</v>
       </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>0.20212997174527275</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="O24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.62124881541539434</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="S24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.15</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="U24" s="14">
+        <f t="shared" si="8"/>
+        <v>0.24144915254237287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="12">
         <v>45085</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
       <c r="D25" s="7">
         <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25" s="7">
         <v>6.4000000000000001E-2</v>
@@ -5636,29 +10134,50 @@
         <f t="shared" si="1"/>
         <v>8.6999999999999994E-3</v>
       </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>0.18908932840686807</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="O25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.67389702011161423</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.14032258064516129</v>
       </c>
       <c r="S25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.14032258064516129</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" s="10" customFormat="1">
+      <c r="U25" s="14">
+        <f t="shared" si="8"/>
+        <v>0.20822555443548385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="10" customFormat="1">
       <c r="A26" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B26" s="11">
         <v>45085</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="D26" s="9">
         <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
       </c>
       <c r="F26" s="9">
         <v>0.439</v>
@@ -5666,35 +10185,56 @@
       <c r="G26" s="9"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>9.4999999999999998E-3</v>
+        <v>1.55E-2</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>9.4999999999999998E-3</v>
+        <v>1.55E-2</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="2"/>
+        <v>9.6758587324625056E-2</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="3"/>
+        <v>0.20647685285807435</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O26" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.6225123723281039</v>
       </c>
       <c r="Q26" s="10">
-        <f t="shared" si="3"/>
-        <v>0.15322580645161291</v>
+        <f t="shared" si="6"/>
+        <v>0.25</v>
       </c>
       <c r="S26" s="10">
-        <f t="shared" si="4"/>
-        <v>0.15322580645161291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="10" customFormat="1">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="U26" s="10">
+        <f t="shared" si="8"/>
+        <v>5.4083143507972664E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="10" customFormat="1">
       <c r="A27" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B27" s="11">
         <v>45085</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="D27" s="9">
         <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
       </c>
       <c r="F27" s="9">
         <v>0.45800000000000002</v>
@@ -5702,35 +10242,56 @@
       <c r="G27" s="9"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>9.1000000000000004E-3</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>9.1000000000000004E-3</v>
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="2"/>
+        <v>6.4505724883083371E-2</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19778309063247121</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.8225755501737391</v>
       </c>
       <c r="Q27" s="10">
-        <f t="shared" si="3"/>
-        <v>0.14677419354838711</v>
+        <f t="shared" si="6"/>
+        <v>0.21129032258064515</v>
       </c>
       <c r="S27" s="10">
-        <f t="shared" si="4"/>
-        <v>0.14677419354838711</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="10" customFormat="1">
+        <f t="shared" si="7"/>
+        <v>0.21129032258064515</v>
+      </c>
+      <c r="U27" s="10">
+        <f t="shared" si="8"/>
+        <v>4.3812755317650373E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="10" customFormat="1">
       <c r="A28" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B28" s="11">
         <v>45085</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="9">
+        <v>0.03</v>
+      </c>
       <c r="D28" s="9">
         <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0</v>
       </c>
       <c r="F28" s="9">
         <v>0.42199999999999999</v>
@@ -5738,35 +10299,56 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>9.4999999999999998E-3</v>
+        <v>3.95E-2</v>
       </c>
       <c r="J28" s="10">
         <f t="shared" si="1"/>
-        <v>9.4999999999999998E-3</v>
+        <v>3.95E-2</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="2"/>
+        <v>0.48379293662312528</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="3"/>
+        <v>0.20647685285807435</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O28" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.4435084763609565</v>
       </c>
       <c r="Q28" s="10">
-        <f t="shared" si="3"/>
-        <v>0.15322580645161291</v>
+        <f t="shared" si="6"/>
+        <v>0.63709677419354849</v>
       </c>
       <c r="S28" s="10">
-        <f t="shared" si="4"/>
-        <v>0.15322580645161291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" s="10" customFormat="1">
+        <f t="shared" si="7"/>
+        <v>0.63709677419354849</v>
+      </c>
+      <c r="U28" s="10">
+        <f t="shared" si="8"/>
+        <v>0.14337696835346278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="10" customFormat="1">
       <c r="A29" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B29" s="11">
         <v>45085</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="9">
+        <v>0</v>
+      </c>
       <c r="D29" s="9">
         <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
       </c>
       <c r="F29" s="9">
         <v>0.47799999999999998</v>
@@ -5780,26 +10362,42 @@
         <f t="shared" si="1"/>
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="L29" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="3"/>
+        <v>0.19560965007607042</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="O29" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.0331683689586182</v>
       </c>
       <c r="Q29" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.14516129032258063</v>
       </c>
       <c r="S29" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.14516129032258063</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="U29" s="10">
+        <f t="shared" si="8"/>
+        <v>2.8840936698609796E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:21">
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:21">
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="4:4">

--- a/data/2023-06-08_bioassay_2.xlsx
+++ b/data/2023-06-08_bioassay_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\Dropbox\PC\Desktop\MS Thesis\MS_Thesis_2023-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86ADC70-8F1A-49D2-BB22-6D50E8ADE381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F30BC62-7583-48FC-8A75-1A6CE12FA2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{5CCCB351-C044-4070-A66C-061B35931ADB}"/>
+    <workbookView xWindow="11016" yWindow="84" windowWidth="11496" windowHeight="12024" firstSheet="5" activeTab="7" xr2:uid="{5CCCB351-C044-4070-A66C-061B35931ADB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chl" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="NH4" sheetId="7" r:id="rId5"/>
     <sheet name="All Nutrients" sheetId="5" r:id="rId6"/>
     <sheet name="All Nutrients zeroes" sheetId="6" r:id="rId7"/>
+    <sheet name="PAM" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -716,7 +717,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="108">
   <si>
     <t>Number</t>
   </si>
@@ -1038,6 +1039,9 @@
   <si>
     <t>DIN:DIP</t>
   </si>
+  <si>
+    <t>FvFm</t>
+  </si>
 </sst>
 </file>
 
@@ -1175,7 +1179,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8742,7 +8746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D503721-5177-475D-B124-D41F3E74F654}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U1" activeCellId="2" sqref="Q1:Q1048576 S1:S1048576 U1:U1048576"/>
     </sheetView>
   </sheetViews>
@@ -9075,7 +9079,7 @@
         <f t="shared" si="7"/>
         <v>0.52908340120849351</v>
       </c>
-      <c r="U6" s="14" t="e">
+      <c r="U6" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -9132,7 +9136,7 @@
         <f t="shared" si="7"/>
         <v>1.8644697213645747</v>
       </c>
-      <c r="U7" s="14" t="e">
+      <c r="U7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -9189,7 +9193,7 @@
         <f t="shared" si="7"/>
         <v>0.35841778266058</v>
       </c>
-      <c r="U8" s="14" t="e">
+      <c r="U8" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -9246,7 +9250,7 @@
         <f t="shared" si="7"/>
         <v>1.8528772753963592</v>
       </c>
-      <c r="U9" s="14" t="e">
+      <c r="U9" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -9531,7 +9535,7 @@
         <f t="shared" si="7"/>
         <v>0.1435483870967742</v>
       </c>
-      <c r="U14" s="14">
+      <c r="U14">
         <f t="shared" si="8"/>
         <v>0.16625354051927616</v>
       </c>
@@ -9588,7 +9592,7 @@
         <f t="shared" si="7"/>
         <v>4.3684579394995549</v>
       </c>
-      <c r="U15" s="14">
+      <c r="U15">
         <f t="shared" si="8"/>
         <v>5.8432739509052505</v>
       </c>
@@ -9645,7 +9649,7 @@
         <f t="shared" si="7"/>
         <v>1.800911105639005</v>
       </c>
-      <c r="U16" s="14">
+      <c r="U16">
         <f t="shared" si="8"/>
         <v>2.0857625329577596</v>
       </c>
@@ -9702,7 +9706,7 @@
         <f t="shared" si="7"/>
         <v>0.25483870967741939</v>
       </c>
-      <c r="U17" s="14">
+      <c r="U17">
         <f t="shared" si="8"/>
         <v>0.36122436206066444</v>
       </c>
@@ -9987,7 +9991,7 @@
         <f t="shared" si="7"/>
         <v>0.15483870967741933</v>
       </c>
-      <c r="U22" s="14">
+      <c r="U22">
         <f t="shared" si="8"/>
         <v>0.27231541218637989</v>
       </c>
@@ -10044,7 +10048,7 @@
         <f t="shared" si="7"/>
         <v>0.15483870967741936</v>
       </c>
-      <c r="U23" s="14">
+      <c r="U23">
         <f t="shared" si="8"/>
         <v>0.27745343883140594</v>
       </c>
@@ -10101,7 +10105,7 @@
         <f t="shared" si="7"/>
         <v>0.15</v>
       </c>
-      <c r="U24" s="14">
+      <c r="U24">
         <f t="shared" si="8"/>
         <v>0.24144915254237287</v>
       </c>
@@ -10158,7 +10162,7 @@
         <f t="shared" si="7"/>
         <v>0.14032258064516129</v>
       </c>
-      <c r="U25" s="14">
+      <c r="U25">
         <f t="shared" si="8"/>
         <v>0.20822555443548385</v>
       </c>
@@ -10476,4 +10480,634 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24559138-EF72-469B-BA09-14C8956AF8DC}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>45083</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14">
+        <v>45083</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>45083</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>45083</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>45083</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>0.66400000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <v>0.72699999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>0.68899999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="14">
+        <v>45085</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/2023-06-08_bioassay_2.xlsx
+++ b/data/2023-06-08_bioassay_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\Dropbox\PC\Desktop\MS Thesis\MS_Thesis_2023-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F30BC62-7583-48FC-8A75-1A6CE12FA2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3533653-7BBB-46BF-BA81-6A56DC669577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11016" yWindow="84" windowWidth="11496" windowHeight="12024" firstSheet="5" activeTab="7" xr2:uid="{5CCCB351-C044-4070-A66C-061B35931ADB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{5CCCB351-C044-4070-A66C-061B35931ADB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chl" sheetId="1" r:id="rId1"/>
@@ -1156,7 +1156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1180,6 +1180,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7122,7 +7123,7 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E29"/>
+      <selection activeCell="L2" sqref="L2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7200,28 +7201,28 @@
         <v>3.6699999999999997E-2</v>
       </c>
       <c r="L2" s="10">
-        <f>(C2/62.01)*1000</f>
-        <v>-4.8379293662312528E-2</v>
+        <f>(C2/14.01)*1000</f>
+        <v>-0.21413276231263384</v>
       </c>
       <c r="M2" s="10">
-        <f>(D2/46.01)*1000</f>
-        <v>0.21082373397087592</v>
+        <f>(D2/14.01)*1000</f>
+        <v>0.69236259814418277</v>
       </c>
       <c r="N2" s="10">
-        <f>(E2/17.03)*1000</f>
-        <v>1.7615971814445095</v>
+        <f>(E2/14.01)*1000</f>
+        <v>2.1413276231263385</v>
       </c>
       <c r="O2" s="10">
-        <f>(F2/94.97)*1000</f>
-        <v>-0.26324102348109935</v>
+        <f>(F2/30.97)*1000</f>
+        <v>-0.80723280594123348</v>
       </c>
       <c r="Q2" s="10">
-        <f>(H2/62)*1000</f>
-        <v>0.10806451612903227</v>
+        <f>L2+M2</f>
+        <v>0.47822983583154893</v>
       </c>
       <c r="S2" s="10">
-        <f>N2+Q2</f>
-        <v>1.8696616975735418</v>
+        <f>L2+M2+N2</f>
+        <v>2.6195574589578876</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="10" customFormat="1">
@@ -7253,28 +7254,28 @@
         <v>7.619999999999999E-2</v>
       </c>
       <c r="L3" s="10">
-        <f>(C3/62.01)*1000</f>
-        <v>-6.4505724883083371E-2</v>
+        <f t="shared" ref="L3:L29" si="2">(C3/14.01)*1000</f>
+        <v>-0.28551034975017847</v>
       </c>
       <c r="M3" s="10">
-        <f t="shared" ref="M3:M29" si="2">(D3/46.01)*1000</f>
-        <v>0.19995653118887199</v>
+        <f t="shared" ref="M3:M29" si="3">(D3/14.01)*1000</f>
+        <v>0.65667380442541035</v>
       </c>
       <c r="N3" s="10">
-        <f t="shared" ref="N3:N29" si="3">(E3/17.03)*1000</f>
-        <v>4.1691133294186722</v>
+        <f t="shared" ref="N3:N29" si="4">(E3/14.01)*1000</f>
+        <v>5.0678087080656669</v>
       </c>
       <c r="O3" s="10">
-        <f t="shared" ref="O3:O29" si="4">(F3/94.97)*1000</f>
-        <v>-0.26324102348109935</v>
+        <f t="shared" ref="O3:O29" si="5">(F3/30.97)*1000</f>
+        <v>-0.80723280594123348</v>
       </c>
       <c r="Q3" s="10">
-        <f t="shared" ref="Q3:Q29" si="5">(H3/62)*1000</f>
-        <v>8.3870967741935476E-2</v>
+        <f t="shared" ref="Q3:Q29" si="6">L3+M3</f>
+        <v>0.37116345467523187</v>
       </c>
       <c r="S3" s="10">
-        <f t="shared" ref="S3:S29" si="6">N3+Q3</f>
-        <v>4.2529842971606078</v>
+        <f t="shared" ref="S3:S29" si="7">L3+M3+N3</f>
+        <v>5.4389721627408987</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="10" customFormat="1">
@@ -7306,28 +7307,28 @@
         <v>1.11E-2</v>
       </c>
       <c r="L4" s="10">
-        <f t="shared" ref="L4:L29" si="7">(C4/62.01)*1000</f>
-        <v>-0.17739074342847927</v>
+        <f t="shared" si="2"/>
+        <v>-0.78515346181299062</v>
       </c>
       <c r="M4" s="10">
-        <f t="shared" si="2"/>
-        <v>0.19778309063247121</v>
+        <f t="shared" si="3"/>
+        <v>0.64953604568165602</v>
       </c>
       <c r="N4" s="10">
-        <f t="shared" si="3"/>
-        <v>0.76335877862595414</v>
+        <f t="shared" si="4"/>
+        <v>0.92790863668807999</v>
       </c>
       <c r="O4" s="10">
-        <f t="shared" si="4"/>
-        <v>-0.24218174160261136</v>
+        <f t="shared" si="5"/>
+        <v>-0.74265418146593476</v>
       </c>
       <c r="Q4" s="10">
-        <f t="shared" si="5"/>
-        <v>-3.0645161290322565E-2</v>
+        <f t="shared" si="6"/>
+        <v>-0.1356174161313346</v>
       </c>
       <c r="S4" s="10">
-        <f t="shared" si="6"/>
-        <v>0.73271361733563156</v>
+        <f t="shared" si="7"/>
+        <v>0.79229122055674539</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1">
@@ -7359,28 +7360,28 @@
         <v>4.3300000000000005E-2</v>
       </c>
       <c r="L5" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.57102069950035694</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" si="3"/>
+        <v>0.6638115631691649</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="4"/>
+        <v>2.9978586723768736</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.80723280594123348</v>
+      </c>
+      <c r="Q5" s="10">
+        <f t="shared" si="6"/>
+        <v>9.2790863668807955E-2</v>
+      </c>
+      <c r="S5" s="10">
         <f t="shared" si="7"/>
-        <v>-0.12901144976616674</v>
-      </c>
-      <c r="M5" s="10">
-        <f t="shared" si="2"/>
-        <v>0.20212997174527275</v>
-      </c>
-      <c r="N5" s="10">
-        <f t="shared" si="3"/>
-        <v>2.4662360540223136</v>
-      </c>
-      <c r="O5" s="10">
-        <f t="shared" si="4"/>
-        <v>-0.26324102348109935</v>
-      </c>
-      <c r="Q5" s="10">
-        <f t="shared" si="5"/>
-        <v>2.0967741935483855E-2</v>
-      </c>
-      <c r="S5" s="10">
-        <f t="shared" si="6"/>
-        <v>2.4872037959577975</v>
+        <v>3.0906495360456816</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7411,29 +7412,29 @@
         <f t="shared" si="1"/>
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="15">
+        <f t="shared" si="2"/>
+        <v>0.42826552462526768</v>
+      </c>
+      <c r="M6" s="15">
+        <f t="shared" si="3"/>
+        <v>0.6138472519628837</v>
+      </c>
+      <c r="N6" s="15">
+        <f t="shared" si="4"/>
+        <v>0.35688793718772305</v>
+      </c>
+      <c r="O6" s="15">
+        <f t="shared" si="5"/>
+        <v>-0.80723280594123348</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>1.0421127765881515</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="7"/>
-        <v>9.6758587324625056E-2</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="2"/>
-        <v>0.18691588785046731</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="3"/>
-        <v>0.29359953024075158</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="4"/>
-        <v>-0.26324102348109935</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="5"/>
-        <v>0.23548387096774195</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="6"/>
-        <v>0.52908340120849351</v>
+        <v>1.3990007137758744</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -7464,29 +7465,29 @@
         <f t="shared" si="1"/>
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="15">
+        <f t="shared" si="2"/>
+        <v>0.57102069950035694</v>
+      </c>
+      <c r="M7" s="15">
+        <f t="shared" si="3"/>
+        <v>0.6638115631691649</v>
+      </c>
+      <c r="N7" s="15">
+        <f t="shared" si="4"/>
+        <v>1.9271948608137046</v>
+      </c>
+      <c r="O7" s="15">
+        <f t="shared" si="5"/>
+        <v>-0.80723280594123348</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>1.2348322626695218</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="7"/>
-        <v>0.12901144976616674</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="2"/>
-        <v>0.20212997174527275</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="3"/>
-        <v>1.5854374633000585</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="4"/>
-        <v>-0.26324102348109935</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="5"/>
-        <v>0.27903225806451615</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="6"/>
-        <v>1.8644697213645747</v>
+        <v>3.1620271234832265</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -7517,29 +7518,29 @@
         <f t="shared" si="1"/>
         <v>1.43E-2</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="15">
+        <f t="shared" si="2"/>
+        <v>0.21413276231263384</v>
+      </c>
+      <c r="M8" s="15">
+        <f t="shared" si="3"/>
+        <v>0.59243397573162027</v>
+      </c>
+      <c r="N8" s="15">
+        <f t="shared" si="4"/>
+        <v>0.21413276231263384</v>
+      </c>
+      <c r="O8" s="15">
+        <f t="shared" si="5"/>
+        <v>-0.80723280594123348</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>0.80656673804425405</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="7"/>
-        <v>4.8379293662312528E-2</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="2"/>
-        <v>0.18039556618126495</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="3"/>
-        <v>0.17615971814445094</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="4"/>
-        <v>-0.26324102348109935</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="5"/>
-        <v>0.18225806451612905</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="6"/>
-        <v>0.35841778266058</v>
+        <v>1.0206995003568879</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7570,29 +7571,29 @@
         <f t="shared" si="1"/>
         <v>3.73E-2</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="15">
+        <f t="shared" si="2"/>
+        <v>-7.1377587437544618E-2</v>
+      </c>
+      <c r="M9" s="15">
+        <f t="shared" si="3"/>
+        <v>0.6638115631691649</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="4"/>
+        <v>2.0699500356887941</v>
+      </c>
+      <c r="O9" s="15">
+        <f t="shared" si="5"/>
+        <v>-0.77494349370358417</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>0.59243397573162027</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="7"/>
-        <v>-1.6126431220770843E-2</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="2"/>
-        <v>0.20212997174527275</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="3"/>
-        <v>1.7028772753963592</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="4"/>
-        <v>-0.25271138254185532</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="5"/>
-        <v>0.13387096774193546</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="6"/>
-        <v>1.8367482431382947</v>
+        <v>2.6623840114204143</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="10" customFormat="1">
@@ -7624,28 +7625,28 @@
         <v>0.16289999999999999</v>
       </c>
       <c r="L10" s="10">
+        <f t="shared" si="2"/>
+        <v>7.2805139186295502</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="3"/>
+        <v>0.70663811563169177</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="4"/>
+        <v>3.6402569593147751</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.83952211817888278</v>
+      </c>
+      <c r="Q10" s="10">
+        <f t="shared" si="6"/>
+        <v>7.9871520342612419</v>
+      </c>
+      <c r="S10" s="10">
         <f t="shared" si="7"/>
-        <v>1.6448959845186262</v>
-      </c>
-      <c r="M10" s="10">
-        <f t="shared" si="2"/>
-        <v>0.21517061508367749</v>
-      </c>
-      <c r="N10" s="10">
-        <f t="shared" si="3"/>
-        <v>2.9947152084556663</v>
-      </c>
-      <c r="O10" s="10">
-        <f t="shared" si="4"/>
-        <v>-0.27377066442034326</v>
-      </c>
-      <c r="Q10" s="10">
-        <f t="shared" si="5"/>
-        <v>1.8048387096774192</v>
-      </c>
-      <c r="S10" s="10">
-        <f t="shared" si="6"/>
-        <v>4.7995539181330855</v>
+        <v>11.627408993576017</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="10" customFormat="1">
@@ -7677,28 +7678,28 @@
         <v>0.1552</v>
       </c>
       <c r="L11" s="10">
+        <f t="shared" si="2"/>
+        <v>7.4946466809421848</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="3"/>
+        <v>0.72805139186295509</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="4"/>
+        <v>2.8551034975017844</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.83952211817888278</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" si="6"/>
+        <v>8.2226980728051391</v>
+      </c>
+      <c r="S11" s="10">
         <f t="shared" si="7"/>
-        <v>1.6932752781809386</v>
-      </c>
-      <c r="M11" s="10">
-        <f t="shared" si="2"/>
-        <v>0.22169093675287982</v>
-      </c>
-      <c r="N11" s="10">
-        <f t="shared" si="3"/>
-        <v>2.3487962419260127</v>
-      </c>
-      <c r="O11" s="10">
-        <f t="shared" si="4"/>
-        <v>-0.27377066442034326</v>
-      </c>
-      <c r="Q11" s="10">
-        <f t="shared" si="5"/>
-        <v>1.8580645161290323</v>
-      </c>
-      <c r="S11" s="10">
-        <f t="shared" si="6"/>
-        <v>4.2068607580550452</v>
+        <v>11.077801570306924</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="10" customFormat="1">
@@ -7730,28 +7731,28 @@
         <v>9.9700000000000011E-2</v>
       </c>
       <c r="L12" s="10">
+        <f t="shared" si="2"/>
+        <v>7.2091363311920063</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="3"/>
+        <v>0.69236259814418277</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="4"/>
+        <v>-0.78515346181299062</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.8718114304165322</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="6"/>
+        <v>7.9014989293361886</v>
+      </c>
+      <c r="S12" s="10">
         <f t="shared" si="7"/>
-        <v>1.6287695532978554</v>
-      </c>
-      <c r="M12" s="10">
-        <f t="shared" si="2"/>
-        <v>0.21082373397087592</v>
-      </c>
-      <c r="N12" s="10">
-        <f t="shared" si="3"/>
-        <v>-0.64591896652965353</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" si="4"/>
-        <v>-0.28430030535958722</v>
-      </c>
-      <c r="Q12" s="10">
-        <f t="shared" si="5"/>
-        <v>1.7854838709677421</v>
-      </c>
-      <c r="S12" s="10">
-        <f t="shared" si="6"/>
-        <v>1.1395649044380884</v>
+        <v>7.1163454675231979</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="10" customFormat="1">
@@ -7783,28 +7784,28 @@
         <v>0.15110000000000001</v>
       </c>
       <c r="L13" s="10">
+        <f t="shared" si="2"/>
+        <v>7.7801570306923633</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="3"/>
+        <v>0.72091363311920054</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="4"/>
+        <v>2.2840827980014278</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.83952211817888278</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" si="6"/>
+        <v>8.5010706638115643</v>
+      </c>
+      <c r="S13" s="10">
         <f t="shared" si="7"/>
-        <v>1.757781003064022</v>
-      </c>
-      <c r="M13" s="10">
-        <f t="shared" si="2"/>
-        <v>0.21951749619647903</v>
-      </c>
-      <c r="N13" s="10">
-        <f t="shared" si="3"/>
-        <v>1.8790369935408104</v>
-      </c>
-      <c r="O13" s="10">
-        <f t="shared" si="4"/>
-        <v>-0.27377066442034326</v>
-      </c>
-      <c r="Q13" s="10">
-        <f t="shared" si="5"/>
-        <v>1.9209677419354838</v>
-      </c>
-      <c r="S13" s="10">
-        <f t="shared" si="6"/>
-        <v>3.8000047354762945</v>
+        <v>10.785153461812993</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7835,29 +7836,29 @@
         <f t="shared" si="1"/>
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="15">
+        <f t="shared" si="2"/>
+        <v>-0.14275517487508924</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="3"/>
+        <v>0.63526052819414702</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.14275517487508924</v>
+      </c>
+      <c r="O14" s="15">
+        <f t="shared" si="5"/>
+        <v>2.647723603487246</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="6"/>
+        <v>0.49250535331905776</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="7"/>
-        <v>-3.2252862441541685E-2</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
-        <v>0.19343620951966964</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="3"/>
-        <v>-0.11743981209630065</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="4"/>
-        <v>0.86343055701800575</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="5"/>
-        <v>0.11129032258064517</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="6"/>
-        <v>-6.1494895156554846E-3</v>
+        <v>0.3497501784439685</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7888,29 +7889,29 @@
         <f t="shared" si="1"/>
         <v>8.6000000000000007E-2</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="15">
+        <f t="shared" si="2"/>
+        <v>0.49964311206281231</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="3"/>
+        <v>0.64239828693790146</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="4"/>
+        <v>4.9964311206281229</v>
+      </c>
+      <c r="O15" s="15">
+        <f t="shared" si="5"/>
+        <v>2.292541168873103</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="6"/>
+        <v>1.1420413990007137</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="7"/>
-        <v>0.1128850185453959</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="2"/>
-        <v>0.19560965007607042</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="3"/>
-        <v>4.1103934233705228</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="4"/>
-        <v>0.74760450668632195</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="5"/>
-        <v>0.25806451612903225</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="6"/>
-        <v>4.3684579394995549</v>
+        <v>6.1384725196288361</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7941,29 +7942,29 @@
         <f t="shared" si="1"/>
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="15">
+        <f t="shared" si="2"/>
+        <v>0.57102069950035694</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" si="3"/>
+        <v>0.64239828693790146</v>
+      </c>
+      <c r="N16" s="15">
+        <f t="shared" si="4"/>
+        <v>1.85581727337616</v>
+      </c>
+      <c r="O16" s="15">
+        <f t="shared" si="5"/>
+        <v>2.647723603487246</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="6"/>
+        <v>1.2134189864382585</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="7"/>
-        <v>0.12901144976616674</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="2"/>
-        <v>0.19560965007607042</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="3"/>
-        <v>1.5267175572519083</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="4"/>
-        <v>0.86343055701800575</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="5"/>
-        <v>0.27419354838709681</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="6"/>
-        <v>1.800911105639005</v>
+        <v>3.0692362598144185</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -7994,29 +7995,29 @@
         <f t="shared" si="1"/>
         <v>-0.32919999999999999</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="15">
+        <f t="shared" si="2"/>
+        <v>0.49964311206281231</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="3"/>
+        <v>0.62812276945039269</v>
+      </c>
+      <c r="N17" s="15">
+        <f t="shared" si="4"/>
+        <v>-24.62526766595289</v>
+      </c>
+      <c r="O17" s="15">
+        <f t="shared" si="5"/>
+        <v>2.1633839199225058</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="6"/>
+        <v>1.127765881513205</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="7"/>
-        <v>0.1128850185453959</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="2"/>
-        <v>0.19126276896326888</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="3"/>
-        <v>-20.258367586611858</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="4"/>
-        <v>0.70548594292934619</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="5"/>
-        <v>0.25483870967741939</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="6"/>
-        <v>-20.003528876934439</v>
+        <v>-23.497501784439685</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="10" customFormat="1">
@@ -8048,28 +8049,28 @@
         <v>-0.28789999999999999</v>
       </c>
       <c r="L18" s="10">
+        <f t="shared" si="2"/>
+        <v>3.7830121341898644</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="3"/>
+        <v>0.64953604568165602</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="4"/>
+        <v>-24.982155603140612</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="5"/>
+        <v>16.370681304488215</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" si="6"/>
+        <v>4.4325481798715201</v>
+      </c>
+      <c r="S18" s="10">
         <f t="shared" si="7"/>
-        <v>0.85470085470085466</v>
-      </c>
-      <c r="M18" s="10">
-        <f t="shared" si="2"/>
-        <v>0.19778309063247121</v>
-      </c>
-      <c r="N18" s="10">
-        <f t="shared" si="3"/>
-        <v>-20.551967116852612</v>
-      </c>
-      <c r="O18" s="10">
-        <f t="shared" si="4"/>
-        <v>5.3385279561966943</v>
-      </c>
-      <c r="Q18" s="10">
-        <f t="shared" si="5"/>
-        <v>1.0016129032258065</v>
-      </c>
-      <c r="S18" s="10">
-        <f t="shared" si="6"/>
-        <v>-19.550354213626807</v>
+        <v>-20.549607423269091</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="10" customFormat="1">
@@ -8101,28 +8102,28 @@
         <v>-0.34229999999999999</v>
       </c>
       <c r="L19" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="3"/>
+        <v>0.62098501070663803</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="4"/>
+        <v>-25.053533190578158</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="5"/>
+        <v>15.305134000645785</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="6"/>
+        <v>0.62098501070663803</v>
+      </c>
+      <c r="S19" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="10">
-        <f t="shared" si="2"/>
-        <v>0.18908932840686807</v>
-      </c>
-      <c r="N19" s="10">
-        <f t="shared" si="3"/>
-        <v>-20.610687022900759</v>
-      </c>
-      <c r="O19" s="10">
-        <f t="shared" si="4"/>
-        <v>4.9910498052016425</v>
-      </c>
-      <c r="Q19" s="10">
-        <f t="shared" si="5"/>
-        <v>0.14032258064516129</v>
-      </c>
-      <c r="S19" s="10">
-        <f t="shared" si="6"/>
-        <v>-20.470364442255597</v>
+        <v>-24.432548179871521</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="10" customFormat="1">
@@ -8154,28 +8155,28 @@
         <v>-0.34380000000000005</v>
       </c>
       <c r="L20" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.7137758743754461</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="3"/>
+        <v>0.65667380442541035</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="4"/>
+        <v>-24.482512491077806</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="5"/>
+        <v>14.497901194704554</v>
+      </c>
+      <c r="Q20" s="10">
+        <f t="shared" si="6"/>
+        <v>-5.710206995003575E-2</v>
+      </c>
+      <c r="S20" s="10">
         <f t="shared" si="7"/>
-        <v>-0.16126431220770843</v>
-      </c>
-      <c r="M20" s="10">
-        <f t="shared" si="2"/>
-        <v>0.19995653118887199</v>
-      </c>
-      <c r="N20" s="10">
-        <f t="shared" si="3"/>
-        <v>-20.140927774515561</v>
-      </c>
-      <c r="O20" s="10">
-        <f t="shared" si="4"/>
-        <v>4.727808781720543</v>
-      </c>
-      <c r="Q20" s="10">
-        <f t="shared" si="5"/>
-        <v>-1.290322580645162E-2</v>
-      </c>
-      <c r="S20" s="10">
-        <f t="shared" si="6"/>
-        <v>-20.153831000322011</v>
+        <v>-24.539614561027843</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="10" customFormat="1">
@@ -8207,28 +8208,28 @@
         <v>-0.35749999999999998</v>
       </c>
       <c r="L21" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.85653104925053536</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="3"/>
+        <v>0.60670949321912926</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="4"/>
+        <v>-25.267665952890791</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="5"/>
+        <v>17.888278979657734</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" si="6"/>
+        <v>-0.2498215560314061</v>
+      </c>
+      <c r="S21" s="10">
         <f t="shared" si="7"/>
-        <v>-0.19351717464925011</v>
-      </c>
-      <c r="M21" s="10">
-        <f t="shared" si="2"/>
-        <v>0.18474244729406653</v>
-      </c>
-      <c r="N21" s="10">
-        <f t="shared" si="3"/>
-        <v>-20.786846741045213</v>
-      </c>
-      <c r="O21" s="10">
-        <f t="shared" si="4"/>
-        <v>5.8334210803411608</v>
-      </c>
-      <c r="Q21" s="10">
-        <f t="shared" si="5"/>
-        <v>-5.6451612903225805E-2</v>
-      </c>
-      <c r="S21" s="10">
-        <f t="shared" si="6"/>
-        <v>-20.843298353948438</v>
+        <v>-25.517487508922198</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -8259,29 +8260,29 @@
         <f t="shared" si="1"/>
         <v>-0.32940000000000003</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="15">
+        <f t="shared" si="2"/>
+        <v>-7.1377587437544618E-2</v>
+      </c>
+      <c r="M22" s="15">
+        <f t="shared" si="3"/>
+        <v>0.68522483940042822</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="4"/>
+        <v>-24.125624553890081</v>
+      </c>
+      <c r="O22" s="15">
+        <f t="shared" si="5"/>
+        <v>1.7436228608330644</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="6"/>
+        <v>0.61384725196288359</v>
+      </c>
+      <c r="S22">
         <f t="shared" si="7"/>
-        <v>-1.6126431220770843E-2</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="2"/>
-        <v>0.20865029341447508</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="3"/>
-        <v>-19.847328244274809</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="4"/>
-        <v>0.56860061071917445</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="5"/>
-        <v>0.13870967741935483</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="6"/>
-        <v>-19.708618566855453</v>
+        <v>-23.511777301927197</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -8312,29 +8313,29 @@
         <f t="shared" si="1"/>
         <v>-0.34439999999999998</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="15">
+        <f t="shared" si="2"/>
+        <v>7.1377587437544618E-2</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" si="3"/>
+        <v>0.6138472519628837</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="4"/>
+        <v>-25.267665952890791</v>
+      </c>
+      <c r="O23" s="15">
+        <f t="shared" si="5"/>
+        <v>1.7113335485954149</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="6"/>
+        <v>0.68522483940042833</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="7"/>
-        <v>1.6126431220770843E-2</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="2"/>
-        <v>0.18691588785046731</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="3"/>
-        <v>-20.786846741045213</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="4"/>
-        <v>0.55807096977993054</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="5"/>
-        <v>0.15483870967741936</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="6"/>
-        <v>-20.632008031367793</v>
+        <v>-24.582441113490361</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -8365,29 +8366,29 @@
         <f t="shared" si="1"/>
         <v>-0.34469999999999995</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="15">
+        <f t="shared" si="2"/>
+        <v>-0.42826552462526768</v>
+      </c>
+      <c r="M24" s="15">
+        <f t="shared" si="3"/>
+        <v>0.6638115631691649</v>
+      </c>
+      <c r="N24" s="15">
+        <f t="shared" si="4"/>
+        <v>-24.839400428265524</v>
+      </c>
+      <c r="O24" s="15">
+        <f t="shared" si="5"/>
+        <v>1.9050694220213109</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="6"/>
+        <v>0.23554603854389722</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="7"/>
-        <v>-9.6758587324625056E-2</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="2"/>
-        <v>0.20212997174527275</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="3"/>
-        <v>-20.434527304756308</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="4"/>
-        <v>0.62124881541539434</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="5"/>
-        <v>5.3225806451612886E-2</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="6"/>
-        <v>-20.381301498304694</v>
+        <v>-24.603854389721626</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -8418,29 +8419,29 @@
         <f t="shared" si="1"/>
         <v>-0.34429999999999999</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="15">
+        <f t="shared" si="2"/>
+        <v>-0.28551034975017847</v>
+      </c>
+      <c r="M25" s="15">
+        <f t="shared" si="3"/>
+        <v>0.62098501070663803</v>
+      </c>
+      <c r="N25" s="15">
+        <f t="shared" si="4"/>
+        <v>-24.91077801570307</v>
+      </c>
+      <c r="O25" s="15">
+        <f t="shared" si="5"/>
+        <v>2.0665159832095576</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="6"/>
+        <v>0.33547466095645956</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="7"/>
-        <v>-6.4505724883083371E-2</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="2"/>
-        <v>0.18908932840686807</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="3"/>
-        <v>-20.493247210804459</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="4"/>
-        <v>0.67389702011161423</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="5"/>
-        <v>7.5806451612903211E-2</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="6"/>
-        <v>-20.417440759191557</v>
+        <v>-24.575303354746609</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="10" customFormat="1">
@@ -8472,28 +8473,28 @@
         <v>-0.33449999999999996</v>
       </c>
       <c r="L26" s="10">
+        <f t="shared" si="2"/>
+        <v>0.42826552462526768</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="3"/>
+        <v>0.67808708065667378</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="4"/>
+        <v>-24.982155603140612</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="5"/>
+        <v>14.17500807232806</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="6"/>
+        <v>1.1063526052819415</v>
+      </c>
+      <c r="S26" s="10">
         <f t="shared" si="7"/>
-        <v>9.6758587324625056E-2</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="2"/>
-        <v>0.20647685285807435</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="3"/>
-        <v>-20.551967116852612</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="4"/>
-        <v>4.6225123723281039</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="6"/>
-        <v>-20.301967116852612</v>
+        <v>-23.875802997858671</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="10" customFormat="1">
@@ -8525,28 +8526,28 @@
         <v>-0.33089999999999997</v>
       </c>
       <c r="L27" s="10">
+        <f t="shared" si="2"/>
+        <v>0.28551034975017847</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="3"/>
+        <v>0.64953604568165602</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="4"/>
+        <v>-24.553890078515344</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="5"/>
+        <v>14.788505004843399</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="6"/>
+        <v>0.93504639543183443</v>
+      </c>
+      <c r="S27" s="10">
         <f t="shared" si="7"/>
-        <v>6.4505724883083371E-2</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="2"/>
-        <v>0.19778309063247121</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="3"/>
-        <v>-20.199647680563707</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="4"/>
-        <v>4.8225755501737391</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="5"/>
-        <v>0.21129032258064515</v>
-      </c>
-      <c r="S27" s="10">
-        <f t="shared" si="6"/>
-        <v>-19.988357357983062</v>
+        <v>-23.618843683083512</v>
       </c>
     </row>
     <row r="28" spans="1:19" s="10" customFormat="1">
@@ -8578,28 +8579,28 @@
         <v>-0.3125</v>
       </c>
       <c r="L28" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1413276231263385</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="3"/>
+        <v>0.67808708065667378</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="4"/>
+        <v>-25.1249107780157</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" si="5"/>
+        <v>13.626089764288022</v>
+      </c>
+      <c r="Q28" s="10">
+        <f t="shared" si="6"/>
+        <v>2.8194147037830124</v>
+      </c>
+      <c r="S28" s="10">
         <f t="shared" si="7"/>
-        <v>0.48379293662312528</v>
-      </c>
-      <c r="M28" s="10">
-        <f t="shared" si="2"/>
-        <v>0.20647685285807435</v>
-      </c>
-      <c r="N28" s="10">
-        <f t="shared" si="3"/>
-        <v>-20.669406928948913</v>
-      </c>
-      <c r="O28" s="10">
-        <f t="shared" si="4"/>
-        <v>4.4435084763609565</v>
-      </c>
-      <c r="Q28" s="10">
-        <f t="shared" si="5"/>
-        <v>0.63709677419354849</v>
-      </c>
-      <c r="S28" s="10">
-        <f t="shared" si="6"/>
-        <v>-20.032310154755365</v>
+        <v>-22.305496074232686</v>
       </c>
     </row>
     <row r="29" spans="1:19" s="10" customFormat="1">
@@ -8631,28 +8632,28 @@
         <v>-0.33600000000000002</v>
       </c>
       <c r="L29" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.64239828693790146</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="3"/>
+        <v>0.64239828693790146</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="4"/>
+        <v>-23.982869379014989</v>
+      </c>
+      <c r="O29" s="10">
+        <f t="shared" si="5"/>
+        <v>15.434291249596383</v>
+      </c>
+      <c r="Q29" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="10">
         <f t="shared" si="7"/>
-        <v>-0.14513788098693758</v>
-      </c>
-      <c r="M29" s="10">
-        <f t="shared" si="2"/>
-        <v>0.19560965007607042</v>
-      </c>
-      <c r="N29" s="10">
-        <f t="shared" si="3"/>
-        <v>-19.729888432178509</v>
-      </c>
-      <c r="O29" s="10">
-        <f t="shared" si="4"/>
-        <v>5.0331683689586182</v>
-      </c>
-      <c r="Q29" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="10">
-        <f t="shared" si="6"/>
-        <v>-19.729888432178509</v>
+        <v>-23.982869379014989</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -8746,8 +8747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D503721-5177-475D-B124-D41F3E74F654}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U1" activeCellId="2" sqref="Q1:Q1048576 S1:S1048576 U1:U1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" activeCellId="2" sqref="L6:O9 L14:O17 L22:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8828,28 +8829,28 @@
         <v>3.9699999999999999E-2</v>
       </c>
       <c r="L2" s="10">
-        <f>(C2/62.01)*1000</f>
+        <f>(C2/14.01)*1000</f>
         <v>0</v>
       </c>
       <c r="M2" s="10">
-        <f>(D2/46.01)*1000</f>
-        <v>0.21082373397087592</v>
+        <f>(D2/14.01)*1000</f>
+        <v>0.69236259814418277</v>
       </c>
       <c r="N2" s="10">
-        <f>(E2/17.03)*1000</f>
-        <v>1.7615971814445095</v>
+        <f>(E2/14.01)*1000</f>
+        <v>2.1413276231263385</v>
       </c>
       <c r="O2" s="10">
-        <f>(F2/94.97)*1000</f>
+        <f>(F2/30.97)*1000</f>
         <v>0</v>
       </c>
       <c r="Q2" s="10">
-        <f>(H2/62)*1000</f>
-        <v>0.15645161290322582</v>
+        <f>L2+M2</f>
+        <v>0.69236259814418277</v>
       </c>
       <c r="S2" s="10">
-        <f>N2+Q2</f>
-        <v>1.9180487943477353</v>
+        <f>L2+M2+N2</f>
+        <v>2.8336902212705213</v>
       </c>
       <c r="U2" s="10" t="e">
         <f>S2/O2</f>
@@ -8885,28 +8886,28 @@
         <v>8.0199999999999994E-2</v>
       </c>
       <c r="L3" s="10">
-        <f t="shared" ref="L3:L29" si="2">(C3/62.01)*1000</f>
+        <f t="shared" ref="L3:L29" si="2">(C3/14.01)*1000</f>
         <v>0</v>
       </c>
       <c r="M3" s="10">
-        <f t="shared" ref="M3:M29" si="3">(D3/46.01)*1000</f>
-        <v>0.19995653118887199</v>
+        <f t="shared" ref="M3:M29" si="3">(D3/14.01)*1000</f>
+        <v>0.65667380442541035</v>
       </c>
       <c r="N3" s="10">
-        <f t="shared" ref="N3:N29" si="4">(E3/17.03)*1000</f>
-        <v>4.1691133294186722</v>
+        <f t="shared" ref="N3:N29" si="4">(E3/14.01)*1000</f>
+        <v>5.0678087080656669</v>
       </c>
       <c r="O3" s="10">
-        <f t="shared" ref="O3:O29" si="5">(F3/94.97)*1000</f>
+        <f t="shared" ref="O3:O29" si="5">(F3/30.97)*1000</f>
         <v>0</v>
       </c>
       <c r="Q3" s="10">
-        <f t="shared" ref="Q3:Q29" si="6">(H3/62)*1000</f>
-        <v>0.14838709677419354</v>
+        <f t="shared" ref="Q3:Q29" si="6">L3+M3</f>
+        <v>0.65667380442541035</v>
       </c>
       <c r="S3" s="10">
-        <f t="shared" ref="S3:S29" si="7">N3+Q3</f>
-        <v>4.3175004261928658</v>
+        <f t="shared" ref="S3:S29" si="7">L3+M3+N3</f>
+        <v>5.7244825124910772</v>
       </c>
       <c r="U3" s="10" t="e">
         <f t="shared" ref="U3:U29" si="8">S3/O3</f>
@@ -8947,11 +8948,11 @@
       </c>
       <c r="M4" s="10">
         <f t="shared" si="3"/>
-        <v>0.19778309063247121</v>
+        <v>0.64953604568165602</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" si="4"/>
-        <v>0.76335877862595414</v>
+        <v>0.92790863668807999</v>
       </c>
       <c r="O4" s="10">
         <f t="shared" si="5"/>
@@ -8959,11 +8960,11 @@
       </c>
       <c r="Q4" s="10">
         <f t="shared" si="6"/>
-        <v>0.14677419354838711</v>
+        <v>0.64953604568165602</v>
       </c>
       <c r="S4" s="10">
         <f t="shared" si="7"/>
-        <v>0.91013297217434119</v>
+        <v>1.5774446823697361</v>
       </c>
       <c r="U4" s="10" t="e">
         <f t="shared" si="8"/>
@@ -9004,11 +9005,11 @@
       </c>
       <c r="M5" s="10">
         <f t="shared" si="3"/>
-        <v>0.20212997174527275</v>
+        <v>0.6638115631691649</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="4"/>
-        <v>2.4662360540223136</v>
+        <v>2.9978586723768736</v>
       </c>
       <c r="O5" s="10">
         <f t="shared" si="5"/>
@@ -9016,11 +9017,11 @@
       </c>
       <c r="Q5" s="10">
         <f t="shared" si="6"/>
-        <v>0.15</v>
+        <v>0.6638115631691649</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="7"/>
-        <v>2.6162360540223135</v>
+        <v>3.6616702355460387</v>
       </c>
       <c r="U5" s="10" t="e">
         <f t="shared" si="8"/>
@@ -9055,29 +9056,29 @@
         <f t="shared" si="1"/>
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="15">
         <f t="shared" si="2"/>
-        <v>9.6758587324625056E-2</v>
-      </c>
-      <c r="M6">
+        <v>0.42826552462526768</v>
+      </c>
+      <c r="M6" s="15">
         <f t="shared" si="3"/>
-        <v>0.18691588785046731</v>
-      </c>
-      <c r="N6">
+        <v>0.6138472519628837</v>
+      </c>
+      <c r="N6" s="15">
         <f t="shared" si="4"/>
-        <v>0.29359953024075158</v>
-      </c>
-      <c r="O6">
+        <v>0.35688793718772305</v>
+      </c>
+      <c r="O6" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q6">
         <f t="shared" si="6"/>
-        <v>0.23548387096774195</v>
+        <v>1.0421127765881515</v>
       </c>
       <c r="S6">
         <f t="shared" si="7"/>
-        <v>0.52908340120849351</v>
+        <v>1.3990007137758744</v>
       </c>
       <c r="U6" t="e">
         <f t="shared" si="8"/>
@@ -9112,29 +9113,29 @@
         <f t="shared" si="1"/>
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="15">
         <f t="shared" si="2"/>
-        <v>0.12901144976616674</v>
-      </c>
-      <c r="M7">
+        <v>0.57102069950035694</v>
+      </c>
+      <c r="M7" s="15">
         <f t="shared" si="3"/>
-        <v>0.20212997174527275</v>
-      </c>
-      <c r="N7">
+        <v>0.6638115631691649</v>
+      </c>
+      <c r="N7" s="15">
         <f t="shared" si="4"/>
-        <v>1.5854374633000585</v>
-      </c>
-      <c r="O7">
+        <v>1.9271948608137046</v>
+      </c>
+      <c r="O7" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q7">
         <f t="shared" si="6"/>
-        <v>0.27903225806451615</v>
+        <v>1.2348322626695218</v>
       </c>
       <c r="S7">
         <f t="shared" si="7"/>
-        <v>1.8644697213645747</v>
+        <v>3.1620271234832265</v>
       </c>
       <c r="U7" t="e">
         <f t="shared" si="8"/>
@@ -9169,29 +9170,29 @@
         <f t="shared" si="1"/>
         <v>1.43E-2</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="15">
         <f t="shared" si="2"/>
-        <v>4.8379293662312528E-2</v>
-      </c>
-      <c r="M8">
+        <v>0.21413276231263384</v>
+      </c>
+      <c r="M8" s="15">
         <f t="shared" si="3"/>
-        <v>0.18039556618126495</v>
-      </c>
-      <c r="N8">
+        <v>0.59243397573162027</v>
+      </c>
+      <c r="N8" s="15">
         <f t="shared" si="4"/>
-        <v>0.17615971814445094</v>
-      </c>
-      <c r="O8">
+        <v>0.21413276231263384</v>
+      </c>
+      <c r="O8" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
-        <v>0.18225806451612905</v>
+        <v>0.80656673804425405</v>
       </c>
       <c r="S8">
         <f t="shared" si="7"/>
-        <v>0.35841778266058</v>
+        <v>1.0206995003568879</v>
       </c>
       <c r="U8" t="e">
         <f t="shared" si="8"/>
@@ -9226,29 +9227,29 @@
         <f t="shared" si="1"/>
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="15">
         <f t="shared" si="3"/>
-        <v>0.20212997174527275</v>
-      </c>
-      <c r="N9">
+        <v>0.6638115631691649</v>
+      </c>
+      <c r="N9" s="15">
         <f t="shared" si="4"/>
-        <v>1.7028772753963592</v>
-      </c>
-      <c r="O9">
+        <v>2.0699500356887941</v>
+      </c>
+      <c r="O9" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q9">
         <f t="shared" si="6"/>
-        <v>0.15</v>
+        <v>0.6638115631691649</v>
       </c>
       <c r="S9">
         <f t="shared" si="7"/>
-        <v>1.8528772753963592</v>
+        <v>2.7337615988579591</v>
       </c>
       <c r="U9" t="e">
         <f t="shared" si="8"/>
@@ -9285,15 +9286,15 @@
       </c>
       <c r="L10" s="10">
         <f t="shared" si="2"/>
-        <v>1.6448959845186262</v>
+        <v>7.2805139186295502</v>
       </c>
       <c r="M10" s="10">
         <f t="shared" si="3"/>
-        <v>0.21517061508367749</v>
+        <v>0.70663811563169177</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" si="4"/>
-        <v>2.9947152084556663</v>
+        <v>3.6402569593147751</v>
       </c>
       <c r="O10" s="10">
         <f t="shared" si="5"/>
@@ -9301,11 +9302,11 @@
       </c>
       <c r="Q10" s="10">
         <f t="shared" si="6"/>
-        <v>1.8048387096774192</v>
+        <v>7.9871520342612419</v>
       </c>
       <c r="S10" s="10">
         <f t="shared" si="7"/>
-        <v>4.7995539181330855</v>
+        <v>11.627408993576017</v>
       </c>
       <c r="U10" s="10" t="e">
         <f t="shared" si="8"/>
@@ -9342,15 +9343,15 @@
       </c>
       <c r="L11" s="10">
         <f t="shared" si="2"/>
-        <v>1.6932752781809386</v>
+        <v>7.4946466809421848</v>
       </c>
       <c r="M11" s="10">
         <f t="shared" si="3"/>
-        <v>0.22169093675287982</v>
+        <v>0.72805139186295509</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" si="4"/>
-        <v>2.3487962419260127</v>
+        <v>2.8551034975017844</v>
       </c>
       <c r="O11" s="10">
         <f t="shared" si="5"/>
@@ -9358,11 +9359,11 @@
       </c>
       <c r="Q11" s="10">
         <f t="shared" si="6"/>
-        <v>1.8580645161290323</v>
+        <v>8.2226980728051391</v>
       </c>
       <c r="S11" s="10">
         <f t="shared" si="7"/>
-        <v>4.2068607580550452</v>
+        <v>11.077801570306924</v>
       </c>
       <c r="U11" s="10" t="e">
         <f t="shared" si="8"/>
@@ -9399,11 +9400,11 @@
       </c>
       <c r="L12" s="10">
         <f t="shared" si="2"/>
-        <v>1.6287695532978554</v>
+        <v>7.2091363311920063</v>
       </c>
       <c r="M12" s="10">
         <f t="shared" si="3"/>
-        <v>0.21082373397087592</v>
+        <v>0.69236259814418277</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" si="4"/>
@@ -9415,11 +9416,11 @@
       </c>
       <c r="Q12" s="10">
         <f t="shared" si="6"/>
-        <v>1.7854838709677421</v>
+        <v>7.9014989293361886</v>
       </c>
       <c r="S12" s="10">
         <f t="shared" si="7"/>
-        <v>1.7854838709677421</v>
+        <v>7.9014989293361886</v>
       </c>
       <c r="U12" s="10" t="e">
         <f t="shared" si="8"/>
@@ -9456,15 +9457,15 @@
       </c>
       <c r="L13" s="10">
         <f t="shared" si="2"/>
-        <v>1.757781003064022</v>
+        <v>7.7801570306923633</v>
       </c>
       <c r="M13" s="10">
         <f t="shared" si="3"/>
-        <v>0.21951749619647903</v>
+        <v>0.72091363311920054</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" si="4"/>
-        <v>1.8790369935408104</v>
+        <v>2.2840827980014278</v>
       </c>
       <c r="O13" s="10">
         <f t="shared" si="5"/>
@@ -9472,11 +9473,11 @@
       </c>
       <c r="Q13" s="10">
         <f t="shared" si="6"/>
-        <v>1.9209677419354838</v>
+        <v>8.5010706638115643</v>
       </c>
       <c r="S13" s="10">
         <f t="shared" si="7"/>
-        <v>3.8000047354762945</v>
+        <v>10.785153461812993</v>
       </c>
       <c r="U13" s="10" t="e">
         <f t="shared" si="8"/>
@@ -9511,33 +9512,33 @@
         <f t="shared" si="1"/>
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="15">
         <f t="shared" si="3"/>
-        <v>0.19343620951966964</v>
-      </c>
-      <c r="N14">
+        <v>0.63526052819414702</v>
+      </c>
+      <c r="N14" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="15">
         <f t="shared" si="5"/>
-        <v>0.86343055701800575</v>
+        <v>2.647723603487246</v>
       </c>
       <c r="Q14">
         <f t="shared" si="6"/>
-        <v>0.1435483870967742</v>
+        <v>0.63526052819414702</v>
       </c>
       <c r="S14">
         <f t="shared" si="7"/>
-        <v>0.1435483870967742</v>
+        <v>0.63526052819414702</v>
       </c>
       <c r="U14">
         <f t="shared" si="8"/>
-        <v>0.16625354051927616</v>
+        <v>0.23992705558747232</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -9568,33 +9569,33 @@
         <f t="shared" si="1"/>
         <v>8.6000000000000007E-2</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="15">
         <f t="shared" si="2"/>
-        <v>0.1128850185453959</v>
-      </c>
-      <c r="M15">
+        <v>0.49964311206281231</v>
+      </c>
+      <c r="M15" s="15">
         <f t="shared" si="3"/>
-        <v>0.19560965007607042</v>
-      </c>
-      <c r="N15">
+        <v>0.64239828693790146</v>
+      </c>
+      <c r="N15" s="15">
         <f t="shared" si="4"/>
-        <v>4.1103934233705228</v>
-      </c>
-      <c r="O15">
+        <v>4.9964311206281229</v>
+      </c>
+      <c r="O15" s="15">
         <f t="shared" si="5"/>
-        <v>0.74760450668632195</v>
+        <v>2.292541168873103</v>
       </c>
       <c r="Q15">
         <f t="shared" si="6"/>
-        <v>0.25806451612903225</v>
+        <v>1.1420413990007137</v>
       </c>
       <c r="S15">
         <f t="shared" si="7"/>
-        <v>4.3684579394995549</v>
+        <v>6.1384725196288361</v>
       </c>
       <c r="U15">
         <f t="shared" si="8"/>
-        <v>5.8432739509052505</v>
+        <v>2.677584421590212</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -9625,33 +9626,33 @@
         <f t="shared" si="1"/>
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="15">
         <f t="shared" si="2"/>
-        <v>0.12901144976616674</v>
-      </c>
-      <c r="M16">
+        <v>0.57102069950035694</v>
+      </c>
+      <c r="M16" s="15">
         <f t="shared" si="3"/>
-        <v>0.19560965007607042</v>
-      </c>
-      <c r="N16">
+        <v>0.64239828693790146</v>
+      </c>
+      <c r="N16" s="15">
         <f t="shared" si="4"/>
-        <v>1.5267175572519083</v>
-      </c>
-      <c r="O16">
+        <v>1.85581727337616</v>
+      </c>
+      <c r="O16" s="15">
         <f t="shared" si="5"/>
-        <v>0.86343055701800575</v>
+        <v>2.647723603487246</v>
       </c>
       <c r="Q16">
         <f t="shared" si="6"/>
-        <v>0.27419354838709681</v>
+        <v>1.2134189864382585</v>
       </c>
       <c r="S16">
         <f t="shared" si="7"/>
-        <v>1.800911105639005</v>
+        <v>3.0692362598144185</v>
       </c>
       <c r="U16">
         <f t="shared" si="8"/>
-        <v>2.0857625329577596</v>
+        <v>1.1591981337372259</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -9682,33 +9683,33 @@
         <f t="shared" si="1"/>
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="15">
         <f t="shared" si="2"/>
-        <v>0.1128850185453959</v>
-      </c>
-      <c r="M17">
+        <v>0.49964311206281231</v>
+      </c>
+      <c r="M17" s="15">
         <f t="shared" si="3"/>
-        <v>0.19126276896326888</v>
-      </c>
-      <c r="N17">
+        <v>0.62812276945039269</v>
+      </c>
+      <c r="N17" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="15">
         <f t="shared" si="5"/>
-        <v>0.70548594292934619</v>
+        <v>2.1633839199225058</v>
       </c>
       <c r="Q17">
         <f t="shared" si="6"/>
-        <v>0.25483870967741939</v>
+        <v>1.127765881513205</v>
       </c>
       <c r="S17">
         <f t="shared" si="7"/>
-        <v>0.25483870967741939</v>
+        <v>1.127765881513205</v>
       </c>
       <c r="U17">
         <f t="shared" si="8"/>
-        <v>0.36122436206066444</v>
+        <v>0.52129715448453662</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="10" customFormat="1">
@@ -9741,11 +9742,11 @@
       </c>
       <c r="L18" s="10">
         <f t="shared" si="2"/>
-        <v>0.85470085470085466</v>
+        <v>3.7830121341898644</v>
       </c>
       <c r="M18" s="10">
         <f t="shared" si="3"/>
-        <v>0.19778309063247121</v>
+        <v>0.64953604568165602</v>
       </c>
       <c r="N18" s="10">
         <f t="shared" si="4"/>
@@ -9753,19 +9754,19 @@
       </c>
       <c r="O18" s="10">
         <f t="shared" si="5"/>
-        <v>5.3385279561966943</v>
+        <v>16.370681304488215</v>
       </c>
       <c r="Q18" s="10">
         <f t="shared" si="6"/>
-        <v>1.0016129032258065</v>
+        <v>4.4325481798715201</v>
       </c>
       <c r="S18" s="10">
         <f t="shared" si="7"/>
-        <v>1.0016129032258065</v>
+        <v>4.4325481798715201</v>
       </c>
       <c r="U18" s="10">
         <f t="shared" si="8"/>
-        <v>0.18761967932811605</v>
+        <v>0.27076137501108671</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="10" customFormat="1">
@@ -9802,7 +9803,7 @@
       </c>
       <c r="M19" s="10">
         <f t="shared" si="3"/>
-        <v>0.18908932840686807</v>
+        <v>0.62098501070663803</v>
       </c>
       <c r="N19" s="10">
         <f t="shared" si="4"/>
@@ -9810,19 +9811,19 @@
       </c>
       <c r="O19" s="10">
         <f t="shared" si="5"/>
-        <v>4.9910498052016425</v>
+        <v>15.305134000645785</v>
       </c>
       <c r="Q19" s="10">
         <f t="shared" si="6"/>
-        <v>0.14032258064516129</v>
+        <v>0.62098501070663803</v>
       </c>
       <c r="S19" s="10">
         <f t="shared" si="7"/>
-        <v>0.14032258064516129</v>
+        <v>0.62098501070663803</v>
       </c>
       <c r="U19" s="10">
         <f t="shared" si="8"/>
-        <v>2.8114842792976723E-2</v>
+        <v>4.0573640889418949E-2</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="10" customFormat="1">
@@ -9859,7 +9860,7 @@
       </c>
       <c r="M20" s="10">
         <f t="shared" si="3"/>
-        <v>0.19995653118887199</v>
+        <v>0.65667380442541035</v>
       </c>
       <c r="N20" s="10">
         <f t="shared" si="4"/>
@@ -9867,19 +9868,19 @@
       </c>
       <c r="O20" s="10">
         <f t="shared" si="5"/>
-        <v>4.727808781720543</v>
+        <v>14.497901194704554</v>
       </c>
       <c r="Q20" s="10">
         <f t="shared" si="6"/>
-        <v>0.14838709677419354</v>
+        <v>0.65667380442541035</v>
       </c>
       <c r="S20" s="10">
         <f t="shared" si="7"/>
-        <v>0.14838709677419354</v>
+        <v>0.65667380442541035</v>
       </c>
       <c r="U20" s="10">
         <f t="shared" si="8"/>
-        <v>3.1386019110568285E-2</v>
+        <v>4.5294404728407477E-2</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="10" customFormat="1">
@@ -9916,7 +9917,7 @@
       </c>
       <c r="M21" s="10">
         <f t="shared" si="3"/>
-        <v>0.18474244729406653</v>
+        <v>0.60670949321912926</v>
       </c>
       <c r="N21" s="10">
         <f t="shared" si="4"/>
@@ -9924,19 +9925,19 @@
       </c>
       <c r="O21" s="10">
         <f t="shared" si="5"/>
-        <v>5.8334210803411608</v>
+        <v>17.888278979657734</v>
       </c>
       <c r="Q21" s="10">
         <f t="shared" si="6"/>
-        <v>0.1370967741935484</v>
+        <v>0.60670949321912926</v>
       </c>
       <c r="S21" s="10">
         <f t="shared" si="7"/>
-        <v>0.1370967741935484</v>
+        <v>0.60670949321912926</v>
       </c>
       <c r="U21" s="10">
         <f t="shared" si="8"/>
-        <v>2.3501950623034822E-2</v>
+        <v>3.3916593871834717E-2</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -9967,33 +9968,33 @@
         <f t="shared" si="1"/>
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="15">
         <f t="shared" si="3"/>
-        <v>0.20865029341447508</v>
-      </c>
-      <c r="N22">
+        <v>0.68522483940042822</v>
+      </c>
+      <c r="N22" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="15">
         <f t="shared" si="5"/>
-        <v>0.56860061071917445</v>
+        <v>1.7436228608330644</v>
       </c>
       <c r="Q22">
         <f t="shared" si="6"/>
-        <v>0.15483870967741933</v>
+        <v>0.68522483940042822</v>
       </c>
       <c r="S22">
         <f t="shared" si="7"/>
-        <v>0.15483870967741933</v>
+        <v>0.68522483940042822</v>
       </c>
       <c r="U22">
         <f t="shared" si="8"/>
-        <v>0.27231541218637989</v>
+        <v>0.39298913474502334</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -10024,33 +10025,33 @@
         <f t="shared" si="1"/>
         <v>9.6000000000000009E-3</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="15">
         <f t="shared" si="2"/>
-        <v>1.6126431220770843E-2</v>
-      </c>
-      <c r="M23">
+        <v>7.1377587437544618E-2</v>
+      </c>
+      <c r="M23" s="15">
         <f t="shared" si="3"/>
-        <v>0.18691588785046731</v>
-      </c>
-      <c r="N23">
+        <v>0.6138472519628837</v>
+      </c>
+      <c r="N23" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="15">
         <f t="shared" si="5"/>
-        <v>0.55807096977993054</v>
+        <v>1.7113335485954149</v>
       </c>
       <c r="Q23">
         <f t="shared" si="6"/>
-        <v>0.15483870967741936</v>
+        <v>0.68522483940042833</v>
       </c>
       <c r="S23">
         <f t="shared" si="7"/>
-        <v>0.15483870967741936</v>
+        <v>0.68522483940042833</v>
       </c>
       <c r="U23">
         <f t="shared" si="8"/>
-        <v>0.27745343883140594</v>
+        <v>0.40040402407983522</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -10081,33 +10082,33 @@
         <f t="shared" si="1"/>
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="15">
         <f t="shared" si="3"/>
-        <v>0.20212997174527275</v>
-      </c>
-      <c r="N24">
+        <v>0.6638115631691649</v>
+      </c>
+      <c r="N24" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="15">
         <f t="shared" si="5"/>
-        <v>0.62124881541539434</v>
+        <v>1.9050694220213109</v>
       </c>
       <c r="Q24">
         <f t="shared" si="6"/>
-        <v>0.15</v>
+        <v>0.6638115631691649</v>
       </c>
       <c r="S24">
         <f t="shared" si="7"/>
-        <v>0.15</v>
+        <v>0.6638115631691649</v>
       </c>
       <c r="U24">
         <f t="shared" si="8"/>
-        <v>0.24144915254237287</v>
+        <v>0.34844481544659384</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -10138,33 +10139,33 @@
         <f t="shared" si="1"/>
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="15">
         <f t="shared" si="3"/>
-        <v>0.18908932840686807</v>
-      </c>
-      <c r="N25">
+        <v>0.62098501070663803</v>
+      </c>
+      <c r="N25" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="15">
         <f t="shared" si="5"/>
-        <v>0.67389702011161423</v>
+        <v>2.0665159832095576</v>
       </c>
       <c r="Q25">
         <f t="shared" si="6"/>
-        <v>0.14032258064516129</v>
+        <v>0.62098501070663803</v>
       </c>
       <c r="S25">
         <f t="shared" si="7"/>
-        <v>0.14032258064516129</v>
+        <v>0.62098501070663803</v>
       </c>
       <c r="U25">
         <f t="shared" si="8"/>
-        <v>0.20822555443548385</v>
+        <v>0.30049852783725906</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="10" customFormat="1">
@@ -10197,11 +10198,11 @@
       </c>
       <c r="L26" s="10">
         <f t="shared" si="2"/>
-        <v>9.6758587324625056E-2</v>
+        <v>0.42826552462526768</v>
       </c>
       <c r="M26" s="10">
         <f t="shared" si="3"/>
-        <v>0.20647685285807435</v>
+        <v>0.67808708065667378</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="4"/>
@@ -10209,19 +10210,19 @@
       </c>
       <c r="O26" s="10">
         <f t="shared" si="5"/>
-        <v>4.6225123723281039</v>
+        <v>14.17500807232806</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="6"/>
-        <v>0.25</v>
+        <v>1.1063526052819415</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="7"/>
-        <v>0.25</v>
+        <v>1.1063526052819415</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="8"/>
-        <v>5.4083143507972664E-2</v>
+        <v>7.804952206282853E-2</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="10" customFormat="1">
@@ -10254,11 +10255,11 @@
       </c>
       <c r="L27" s="10">
         <f t="shared" si="2"/>
-        <v>6.4505724883083371E-2</v>
+        <v>0.28551034975017847</v>
       </c>
       <c r="M27" s="10">
         <f t="shared" si="3"/>
-        <v>0.19778309063247121</v>
+        <v>0.64953604568165602</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="4"/>
@@ -10266,19 +10267,19 @@
       </c>
       <c r="O27" s="10">
         <f t="shared" si="5"/>
-        <v>4.8225755501737391</v>
+        <v>14.788505004843399</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="6"/>
-        <v>0.21129032258064515</v>
+        <v>0.93504639543183443</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="7"/>
-        <v>0.21129032258064515</v>
+        <v>0.93504639543183443</v>
       </c>
       <c r="U27" s="10">
         <f t="shared" si="8"/>
-        <v>4.3812755317650373E-2</v>
+        <v>6.3227918922541287E-2</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="10" customFormat="1">
@@ -10311,11 +10312,11 @@
       </c>
       <c r="L28" s="10">
         <f t="shared" si="2"/>
-        <v>0.48379293662312528</v>
+        <v>2.1413276231263385</v>
       </c>
       <c r="M28" s="10">
         <f t="shared" si="3"/>
-        <v>0.20647685285807435</v>
+        <v>0.67808708065667378</v>
       </c>
       <c r="N28" s="10">
         <f t="shared" si="4"/>
@@ -10323,19 +10324,19 @@
       </c>
       <c r="O28" s="10">
         <f t="shared" si="5"/>
-        <v>4.4435084763609565</v>
+        <v>13.626089764288022</v>
       </c>
       <c r="Q28" s="10">
         <f t="shared" si="6"/>
-        <v>0.63709677419354849</v>
+        <v>2.8194147037830124</v>
       </c>
       <c r="S28" s="10">
         <f t="shared" si="7"/>
-        <v>0.63709677419354849</v>
+        <v>2.8194147037830124</v>
       </c>
       <c r="U28" s="10">
         <f t="shared" si="8"/>
-        <v>0.14337696835346278</v>
+        <v>0.20691297008568693</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="10" customFormat="1">
@@ -10372,7 +10373,7 @@
       </c>
       <c r="M29" s="10">
         <f t="shared" si="3"/>
-        <v>0.19560965007607042</v>
+        <v>0.64239828693790146</v>
       </c>
       <c r="N29" s="10">
         <f t="shared" si="4"/>
@@ -10380,19 +10381,19 @@
       </c>
       <c r="O29" s="10">
         <f t="shared" si="5"/>
-        <v>5.0331683689586182</v>
+        <v>15.434291249596383</v>
       </c>
       <c r="Q29" s="10">
         <f t="shared" si="6"/>
-        <v>0.14516129032258063</v>
+        <v>0.64239828693790146</v>
       </c>
       <c r="S29" s="10">
         <f t="shared" si="7"/>
-        <v>0.14516129032258063</v>
+        <v>0.64239828693790146</v>
       </c>
       <c r="U29" s="10">
         <f t="shared" si="8"/>
-        <v>2.8840936698609796E-2</v>
+        <v>4.1621495703905456E-2</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -10486,7 +10487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24559138-EF72-469B-BA09-14C8956AF8DC}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
